--- a/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 53_it_IT.xlsx
+++ b/inputs/VolumesExcel_06_07_2022/it_IT/Paesi Bassi VOLUME 53_it_IT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2df41c4215c7d11/VolumesExcel/it_IT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daniel/DocumentenLaptop/Programming/Github/DanielNoord/ProjectInventarisGezantschappen/inputs/VolumesExcel_06_07_2022/it_IT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_4465D96937FA10C2E3E1951545F71E7EDA2B9634" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2941538C-19DE-4909-8FE8-25C3376960CF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28416EC7-FA24-8040-963F-D19749F75390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="317">
   <si>
     <t>ms328_title</t>
   </si>
@@ -792,15 +792,9 @@
     <t>ms328_45_171</t>
   </si>
   <si>
-    <t>ms328_45_172-1</t>
-  </si>
-  <si>
     <t>Tabella a stampa “Specchietto dei fari e fanali accesi sino al 1 ottobre 1859 sulle Coste della Sicilia”</t>
   </si>
   <si>
-    <t>ms328_45_172-2</t>
-  </si>
-  <si>
     <t>ms328_45_173</t>
   </si>
   <si>
@@ -976,6 +970,9 @@
   </si>
   <si>
     <t>Archivio della Legazione dei Paesi Bassi a Roma e a Napoli. Corrispondenza diplomatica in arrivo</t>
+  </si>
+  <si>
+    <t>ms328_45_172</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1045,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1056,7 +1053,6 @@
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1078,9 +1074,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1118,9 +1114,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1153,26 +1149,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1205,26 +1184,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1398,36 +1360,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N572"/>
+  <dimension ref="A1:N571"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A164" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="73.453125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="6.453125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="21.453125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="24" style="7" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="73.5" customWidth="1"/>
+    <col min="3" max="3" width="10.5" customWidth="1"/>
+    <col min="4" max="4" width="6.5" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="21.5" customWidth="1"/>
+    <col min="10" max="10" width="24" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C1">
         <v>1859</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1438,7 +1400,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1446,11 +1408,11 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4">
@@ -1472,11 +1434,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C5">
@@ -1498,11 +1460,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C6">
@@ -1524,11 +1486,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C7">
@@ -1550,11 +1512,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8">
@@ -1576,11 +1538,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C9">
@@ -1602,11 +1564,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1628,11 +1590,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11">
@@ -1654,11 +1616,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C12">
@@ -1680,11 +1642,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
       <c r="C13">
@@ -1706,11 +1668,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="5" t="s">
         <v>28</v>
       </c>
       <c r="C14">
@@ -1732,11 +1694,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C15">
@@ -1758,11 +1720,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C16">
@@ -1784,11 +1746,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>39</v>
       </c>
       <c r="C17">
@@ -1810,7 +1772,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -1830,11 +1792,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C19">
@@ -1847,11 +1809,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C20">
@@ -1873,11 +1835,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C21">
@@ -1899,11 +1861,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>48</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C22">
@@ -1925,11 +1887,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C23">
@@ -1951,11 +1913,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="C24">
@@ -1977,11 +1939,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C25">
@@ -2003,11 +1965,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C26">
@@ -2029,11 +1991,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>55</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C27">
@@ -2055,11 +2017,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C28">
@@ -2075,11 +2037,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="5" t="s">
         <v>58</v>
       </c>
       <c r="C29">
@@ -2095,11 +2057,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C30">
@@ -2121,11 +2083,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C31">
@@ -2144,11 +2106,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>61</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C32">
@@ -2170,11 +2132,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C33">
@@ -2184,19 +2146,19 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C35">
@@ -2218,11 +2180,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C36">
@@ -2244,11 +2206,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>71</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C37">
@@ -2270,11 +2232,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C38">
@@ -2296,11 +2258,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>73</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C39">
@@ -2310,11 +2272,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>75</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="5" t="s">
         <v>74</v>
       </c>
       <c r="C40">
@@ -2324,11 +2286,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C41">
@@ -2350,11 +2312,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C42">
@@ -2376,11 +2338,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>78</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C43">
@@ -2402,11 +2364,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>79</v>
       </c>
-      <c r="B44" s="6" t="s">
+      <c r="B44" s="5" t="s">
         <v>80</v>
       </c>
       <c r="C44">
@@ -2419,11 +2381,11 @@
         <v>81</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>82</v>
       </c>
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C45">
@@ -2445,11 +2407,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>83</v>
       </c>
-      <c r="B46" s="6" t="s">
+      <c r="B46" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C46">
@@ -2468,11 +2430,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>87</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>84</v>
       </c>
       <c r="C47">
@@ -2491,11 +2453,11 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>88</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B48" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C48">
@@ -2517,7 +2479,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2525,11 +2487,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>93</v>
       </c>
-      <c r="B50" s="6" t="s">
+      <c r="B50" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C50">
@@ -2551,7 +2513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -2559,11 +2521,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>95</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B52" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C52">
@@ -2585,7 +2547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>96</v>
       </c>
@@ -2593,11 +2555,11 @@
         <v>64</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>97</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>98</v>
       </c>
       <c r="C54">
@@ -2613,11 +2575,11 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>100</v>
       </c>
-      <c r="B55" s="6" t="s">
+      <c r="B55" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C55">
@@ -2639,19 +2601,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>101</v>
       </c>
-      <c r="B56" s="6" t="s">
+      <c r="B56" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>102</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C57">
@@ -2673,11 +2635,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>103</v>
       </c>
-      <c r="B58" s="6" t="s">
+      <c r="B58" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C58">
@@ -2699,11 +2661,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>104</v>
       </c>
-      <c r="B59" s="6" t="s">
+      <c r="B59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C59">
@@ -2725,19 +2687,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>105</v>
       </c>
-      <c r="B60" s="6" t="s">
+      <c r="B60" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>106</v>
       </c>
-      <c r="B61" s="6" t="s">
+      <c r="B61" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C61">
@@ -2759,11 +2721,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>107</v>
       </c>
-      <c r="B62" s="6" t="s">
+      <c r="B62" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C62">
@@ -2785,11 +2747,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>108</v>
       </c>
-      <c r="B63" s="6" t="s">
+      <c r="B63" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C63">
@@ -2811,19 +2773,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>109</v>
       </c>
-      <c r="B64" s="6" t="s">
+      <c r="B64" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>110</v>
       </c>
-      <c r="B65" s="6" t="s">
+      <c r="B65" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C65">
@@ -2845,11 +2807,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>111</v>
       </c>
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="5" t="s">
         <v>112</v>
       </c>
       <c r="C66">
@@ -2871,11 +2833,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>113</v>
       </c>
-      <c r="B67" s="6" t="s">
+      <c r="B67" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C67">
@@ -2897,11 +2859,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>114</v>
       </c>
-      <c r="B68" s="6" t="s">
+      <c r="B68" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C68">
@@ -2923,11 +2885,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="6" t="s">
+      <c r="B69" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C69">
@@ -2942,18 +2904,18 @@
       <c r="F69" t="s">
         <v>36</v>
       </c>
-      <c r="G69" s="7" t="s">
+      <c r="G69" s="6" t="s">
         <v>37</v>
       </c>
       <c r="H69" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>116</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C70">
@@ -2975,11 +2937,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>117</v>
       </c>
-      <c r="B71" s="6" t="s">
+      <c r="B71" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C71">
@@ -3001,11 +2963,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>118</v>
       </c>
-      <c r="B72" s="6" t="s">
+      <c r="B72" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C72">
@@ -3027,11 +2989,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>119</v>
       </c>
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C73">
@@ -3053,11 +3015,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>120</v>
       </c>
-      <c r="B74" s="6" t="s">
+      <c r="B74" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C74">
@@ -3079,11 +3041,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="6" t="s">
+      <c r="B75" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C75">
@@ -3105,11 +3067,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="76" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>124</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="5" t="s">
         <v>122</v>
       </c>
       <c r="C76">
@@ -3131,11 +3093,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="77" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>125</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C77">
@@ -3160,22 +3122,22 @@
         <v>126</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>127</v>
       </c>
-      <c r="B78" s="6" t="s">
+      <c r="B78" s="5" t="s">
         <v>64</v>
       </c>
       <c r="K78" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>129</v>
       </c>
-      <c r="B79" s="6" t="s">
+      <c r="B79" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C79">
@@ -3197,15 +3159,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>130</v>
       </c>
-      <c r="B80" s="6" t="s">
+      <c r="B80" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>131</v>
       </c>
@@ -3231,15 +3193,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>135</v>
       </c>
-      <c r="B82" s="6" t="s">
+      <c r="B82" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>136</v>
       </c>
@@ -3265,11 +3227,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>137</v>
       </c>
-      <c r="B84" s="6" t="s">
+      <c r="B84" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C84">
@@ -3291,11 +3253,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>138</v>
       </c>
-      <c r="B85" s="6" t="s">
+      <c r="B85" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C85">
@@ -3317,11 +3279,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="6" t="s">
+      <c r="B86" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C86">
@@ -3343,11 +3305,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="6" t="s">
+      <c r="B87" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C87">
@@ -3369,11 +3331,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>141</v>
       </c>
-      <c r="B88" s="6" t="s">
+      <c r="B88" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C88">
@@ -3395,11 +3357,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>145</v>
       </c>
-      <c r="B89" s="6" t="s">
+      <c r="B89" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C89">
@@ -3421,11 +3383,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="6" t="s">
+      <c r="B90" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C90">
@@ -3447,11 +3409,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="6" t="s">
+      <c r="B91" s="5" t="s">
         <v>148</v>
       </c>
       <c r="C91">
@@ -3473,11 +3435,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>150</v>
       </c>
-      <c r="B92" s="6" t="s">
+      <c r="B92" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C92">
@@ -3499,11 +3461,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="6" t="s">
+      <c r="B93" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C93">
@@ -3525,11 +3487,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>152</v>
       </c>
-      <c r="B94" s="6" t="s">
+      <c r="B94" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C94">
@@ -3551,22 +3513,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="6" t="s">
+      <c r="B95" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C95">
         <v>1859</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>155</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B96" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C96">
@@ -3588,11 +3550,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>156</v>
       </c>
-      <c r="B97" s="6" t="s">
+      <c r="B97" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C97">
@@ -3614,11 +3576,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>157</v>
       </c>
-      <c r="B98" s="6" t="s">
+      <c r="B98" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C98">
@@ -3640,11 +3602,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>158</v>
       </c>
-      <c r="B99" s="6" t="s">
+      <c r="B99" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C99">
@@ -3666,11 +3628,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>159</v>
       </c>
-      <c r="B100" s="6" t="s">
+      <c r="B100" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C100">
@@ -3692,11 +3654,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>160</v>
       </c>
-      <c r="B101" s="6" t="s">
+      <c r="B101" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C101">
@@ -3718,11 +3680,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>161</v>
       </c>
-      <c r="B102" s="6" t="s">
+      <c r="B102" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C102">
@@ -3744,19 +3706,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>162</v>
       </c>
-      <c r="B103" s="6" t="s">
+      <c r="B103" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>163</v>
       </c>
-      <c r="B104" s="6" t="s">
+      <c r="B104" s="5" t="s">
         <v>164</v>
       </c>
       <c r="C104">
@@ -3772,11 +3734,11 @@
         <v>165</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>166</v>
       </c>
-      <c r="B105" s="6" t="s">
+      <c r="B105" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C105">
@@ -3798,19 +3760,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>167</v>
       </c>
-      <c r="B106" s="6" t="s">
+      <c r="B106" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>168</v>
       </c>
-      <c r="B107" s="6" t="s">
+      <c r="B107" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C107">
@@ -3832,11 +3794,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>169</v>
       </c>
-      <c r="B108" s="6" t="s">
+      <c r="B108" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C108">
@@ -3858,11 +3820,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>171</v>
       </c>
-      <c r="B109" s="6" t="s">
+      <c r="B109" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C109">
@@ -3884,11 +3846,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>172</v>
       </c>
-      <c r="B110" s="6" t="s">
+      <c r="B110" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C110">
@@ -3910,11 +3872,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>173</v>
       </c>
-      <c r="B111" s="6" t="s">
+      <c r="B111" s="5" t="s">
         <v>170</v>
       </c>
       <c r="C111">
@@ -3936,22 +3898,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>174</v>
       </c>
-      <c r="B112" s="6" t="s">
+      <c r="B112" s="5" t="s">
         <v>154</v>
       </c>
       <c r="C112">
         <v>1859</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>175</v>
       </c>
-      <c r="B113" s="6" t="s">
+      <c r="B113" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C113">
@@ -3973,11 +3935,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>176</v>
       </c>
-      <c r="B114" s="6" t="s">
+      <c r="B114" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C114">
@@ -3999,11 +3961,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>177</v>
       </c>
-      <c r="B115" s="6" t="s">
+      <c r="B115" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C115">
@@ -4025,11 +3987,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>178</v>
       </c>
-      <c r="B116" s="6" t="s">
+      <c r="B116" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C116">
@@ -4051,19 +4013,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>179</v>
       </c>
-      <c r="B117" s="6" t="s">
+      <c r="B117" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>180</v>
       </c>
-      <c r="B118" s="6" t="s">
+      <c r="B118" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C118">
@@ -4085,11 +4047,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>181</v>
       </c>
-      <c r="B119" s="6" t="s">
+      <c r="B119" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C119">
@@ -4111,11 +4073,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>182</v>
       </c>
-      <c r="B120" s="6" t="s">
+      <c r="B120" s="5" t="s">
         <v>183</v>
       </c>
       <c r="C120">
@@ -4131,11 +4093,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>184</v>
       </c>
-      <c r="B121" s="6" t="s">
+      <c r="B121" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C121">
@@ -4157,11 +4119,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>185</v>
       </c>
-      <c r="B122" s="6" t="s">
+      <c r="B122" s="5" t="s">
         <v>186</v>
       </c>
       <c r="C122">
@@ -4183,11 +4145,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>188</v>
       </c>
-      <c r="B123" s="6" t="s">
+      <c r="B123" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C123">
@@ -4209,19 +4171,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>189</v>
       </c>
-      <c r="B124" s="6" t="s">
+      <c r="B124" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>190</v>
       </c>
-      <c r="B125" s="6" t="s">
+      <c r="B125" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C125">
@@ -4243,11 +4205,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>191</v>
       </c>
-      <c r="B126" s="6" t="s">
+      <c r="B126" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C126">
@@ -4269,11 +4231,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>192</v>
       </c>
-      <c r="B127" s="6" t="s">
+      <c r="B127" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C127">
@@ -4295,7 +4257,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>193</v>
       </c>
@@ -4315,7 +4277,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>195</v>
       </c>
@@ -4335,11 +4297,11 @@
         <v>25</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>196</v>
       </c>
-      <c r="B130" s="6" t="s">
+      <c r="B130" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C130">
@@ -4361,19 +4323,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>197</v>
       </c>
-      <c r="B131" s="6" t="s">
+      <c r="B131" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>198</v>
       </c>
-      <c r="B132" s="6" t="s">
+      <c r="B132" s="5" t="s">
         <v>199</v>
       </c>
       <c r="C132">
@@ -4395,11 +4357,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>200</v>
       </c>
-      <c r="B133" s="6" t="s">
+      <c r="B133" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C133">
@@ -4421,11 +4383,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>201</v>
       </c>
-      <c r="B134" s="6" t="s">
+      <c r="B134" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C134">
@@ -4447,11 +4409,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>202</v>
       </c>
-      <c r="B135" s="6" t="s">
+      <c r="B135" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C135">
@@ -4473,7 +4435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>203</v>
       </c>
@@ -4493,19 +4455,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>207</v>
       </c>
-      <c r="B137" s="6" t="s">
+      <c r="B137" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>208</v>
       </c>
-      <c r="B138" s="6" t="s">
+      <c r="B138" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C138">
@@ -4514,13 +4476,13 @@
       <c r="D138">
         <v>9</v>
       </c>
-      <c r="G138" s="7"/>
-    </row>
-    <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G138" s="6"/>
+    </row>
+    <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>210</v>
       </c>
-      <c r="B139" s="6" t="s">
+      <c r="B139" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C139">
@@ -4530,11 +4492,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>211</v>
       </c>
-      <c r="B140" s="6" t="s">
+      <c r="B140" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C140">
@@ -4544,11 +4506,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>212</v>
       </c>
-      <c r="B141" s="6" t="s">
+      <c r="B141" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C141">
@@ -4558,11 +4520,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>213</v>
       </c>
-      <c r="B142" s="6" t="s">
+      <c r="B142" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C142">
@@ -4572,11 +4534,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>214</v>
       </c>
-      <c r="B143" s="6" t="s">
+      <c r="B143" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C143">
@@ -4586,11 +4548,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>215</v>
       </c>
-      <c r="B144" s="6" t="s">
+      <c r="B144" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C144">
@@ -4600,11 +4562,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>216</v>
       </c>
-      <c r="B145" s="6" t="s">
+      <c r="B145" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C145">
@@ -4614,11 +4576,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>217</v>
       </c>
-      <c r="B146" s="6" t="s">
+      <c r="B146" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C146">
@@ -4627,13 +4589,13 @@
       <c r="D146">
         <v>9</v>
       </c>
-      <c r="G146" s="7"/>
-    </row>
-    <row r="147" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G146" s="6"/>
+    </row>
+    <row r="147" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>218</v>
       </c>
-      <c r="B147" s="6" t="s">
+      <c r="B147" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C147">
@@ -4643,25 +4605,25 @@
         <v>9</v>
       </c>
     </row>
-    <row r="148" spans="1:8" s="8" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="8" t="s">
+    <row r="148" spans="1:8" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="B148" s="6" t="s">
+      <c r="B148" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="C148" s="8">
+      <c r="C148" s="7">
         <v>1848</v>
       </c>
-      <c r="D148" s="8">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D148" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>220</v>
       </c>
-      <c r="B149" s="6" t="s">
+      <c r="B149" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C149">
@@ -4671,11 +4633,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>221</v>
       </c>
-      <c r="B150" s="6" t="s">
+      <c r="B150" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C150">
@@ -4685,11 +4647,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>222</v>
       </c>
-      <c r="B151" s="6" t="s">
+      <c r="B151" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C151">
@@ -4699,11 +4661,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>223</v>
       </c>
-      <c r="B152" s="6" t="s">
+      <c r="B152" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C152">
@@ -4713,11 +4675,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>224</v>
       </c>
-      <c r="B153" s="6" t="s">
+      <c r="B153" s="5" t="s">
         <v>209</v>
       </c>
       <c r="C153">
@@ -4727,11 +4689,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>225</v>
       </c>
-      <c r="B154" s="6" t="s">
+      <c r="B154" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C154">
@@ -4753,11 +4715,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>228</v>
       </c>
-      <c r="B155" s="6" t="s">
+      <c r="B155" s="5" t="s">
         <v>226</v>
       </c>
       <c r="C155">
@@ -4776,11 +4738,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>229</v>
       </c>
-      <c r="B156" s="6" t="s">
+      <c r="B156" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C156">
@@ -4802,30 +4764,30 @@
         <v>9</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>230</v>
       </c>
-      <c r="B157" s="6" t="s">
+      <c r="B157" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>231</v>
       </c>
-      <c r="B158" s="6" t="s">
+      <c r="B158" s="5" t="s">
         <v>232</v>
       </c>
       <c r="C158">
         <v>1859</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>233</v>
       </c>
-      <c r="B159" s="6" t="s">
+      <c r="B159" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C159">
@@ -4847,19 +4809,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>234</v>
       </c>
-      <c r="B160" s="6" t="s">
+      <c r="B160" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>235</v>
       </c>
-      <c r="B161" s="6" t="s">
+      <c r="B161" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C161">
@@ -4881,11 +4843,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>236</v>
       </c>
-      <c r="B162" s="6" t="s">
+      <c r="B162" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C162">
@@ -4907,11 +4869,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>237</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B163" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C163">
@@ -4933,11 +4895,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>238</v>
       </c>
-      <c r="B164" s="6" t="s">
+      <c r="B164" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C164">
@@ -4959,19 +4921,19 @@
         <v>9</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>239</v>
       </c>
-      <c r="B165" s="6" t="s">
+      <c r="B165" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>240</v>
       </c>
-      <c r="B166" s="6" t="s">
+      <c r="B166" s="5" t="s">
         <v>241</v>
       </c>
       <c r="C166">
@@ -4990,11 +4952,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>243</v>
       </c>
-      <c r="B167" s="6" t="s">
+      <c r="B167" s="5" t="s">
         <v>241</v>
       </c>
       <c r="C167">
@@ -5013,11 +4975,11 @@
         <v>242</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>244</v>
       </c>
-      <c r="B168" s="6" t="s">
+      <c r="B168" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C168">
@@ -5033,11 +4995,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>246</v>
       </c>
-      <c r="B169" s="6" t="s">
+      <c r="B169" s="5" t="s">
         <v>245</v>
       </c>
       <c r="C169">
@@ -5053,11 +5015,11 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>247</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B170" s="5" t="s">
         <v>248</v>
       </c>
       <c r="C170">
@@ -5073,11 +5035,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>249</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B171" s="5" t="s">
         <v>89</v>
       </c>
       <c r="C171">
@@ -5099,11 +5061,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>250</v>
       </c>
-      <c r="B172" s="6" t="s">
+      <c r="B172" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C172">
@@ -5125,11 +5087,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>251</v>
       </c>
-      <c r="B173" s="6" t="s">
+      <c r="B173" s="5" t="s">
         <v>252</v>
       </c>
       <c r="C173">
@@ -5151,11 +5113,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>254</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B174" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C174">
@@ -5177,79 +5139,94 @@
         <v>9</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>255</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B175" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
+        <v>316</v>
+      </c>
+      <c r="B176" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="C176">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
         <v>257</v>
       </c>
-      <c r="C176">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B177" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177">
+        <v>1859</v>
+      </c>
+      <c r="D177">
+        <v>9</v>
+      </c>
+      <c r="E177">
+        <v>29</v>
+      </c>
+      <c r="F177" t="s">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>18</v>
+      </c>
+      <c r="H177" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
         <v>258</v>
       </c>
-      <c r="B177" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C177">
-        <v>1859</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B178" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="C178">
         <v>1859</v>
       </c>
-      <c r="D178">
-        <v>9</v>
-      </c>
-      <c r="E178">
-        <v>29</v>
-      </c>
-      <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>18</v>
-      </c>
-      <c r="H178" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="179" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>260</v>
       </c>
-      <c r="B179" s="6" t="s">
+      <c r="B179" s="5" t="s">
         <v>261</v>
       </c>
       <c r="C179">
         <v>1859</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D179">
+        <v>10</v>
+      </c>
+      <c r="E179">
+        <v>5</v>
+      </c>
+      <c r="F179" t="s">
+        <v>25</v>
+      </c>
+      <c r="G179" t="s">
+        <v>262</v>
+      </c>
+      <c r="H179" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>262</v>
-      </c>
-      <c r="B180" s="6" t="s">
         <v>263</v>
+      </c>
+      <c r="B180" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C180">
         <v>1859</v>
@@ -5261,21 +5238,21 @@
         <v>5</v>
       </c>
       <c r="F180" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G180" t="s">
+        <v>18</v>
+      </c>
+      <c r="H180" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
         <v>264</v>
       </c>
-      <c r="H180" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B181" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="C181">
         <v>1859</v>
@@ -5284,24 +5261,24 @@
         <v>10</v>
       </c>
       <c r="E181">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="G181" t="s">
-        <v>18</v>
+        <v>266</v>
       </c>
       <c r="H181" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>266</v>
-      </c>
-      <c r="B182" s="6" t="s">
         <v>267</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C182">
         <v>1859</v>
@@ -5310,24 +5287,24 @@
         <v>10</v>
       </c>
       <c r="E182">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F182" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G182" t="s">
+        <v>37</v>
+      </c>
+      <c r="H182" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
         <v>268</v>
       </c>
-      <c r="H182" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>269</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>35</v>
+      <c r="B183" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C183">
         <v>1859</v>
@@ -5336,24 +5313,24 @@
         <v>10</v>
       </c>
       <c r="E183">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="G183" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="H183" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>270</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>11</v>
+        <v>269</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="C184">
         <v>1859</v>
@@ -5362,23 +5339,23 @@
         <v>10</v>
       </c>
       <c r="E184">
+        <v>27</v>
+      </c>
+      <c r="F184" t="s">
         <v>25</v>
       </c>
-      <c r="F184" t="s">
-        <v>7</v>
-      </c>
       <c r="G184" t="s">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="H184" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>271</v>
-      </c>
-      <c r="B185" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="B185" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C185">
@@ -5400,12 +5377,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
+        <v>271</v>
+      </c>
+      <c r="B186" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>69</v>
       </c>
       <c r="C186">
         <v>1859</v>
@@ -5419,19 +5396,13 @@
       <c r="F186" t="s">
         <v>25</v>
       </c>
-      <c r="G186" t="s">
-        <v>70</v>
-      </c>
-      <c r="H186" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="187" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>273</v>
       </c>
-      <c r="B187" s="3" t="s">
-        <v>274</v>
+      <c r="B187" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C187">
         <v>1859</v>
@@ -5440,17 +5411,23 @@
         <v>10</v>
       </c>
       <c r="E187">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F187" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="G187" t="s">
+        <v>8</v>
+      </c>
+      <c r="H187" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>275</v>
-      </c>
-      <c r="B188" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="B188" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C188">
@@ -5472,12 +5449,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>276</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>6</v>
+        <v>275</v>
+      </c>
+      <c r="B189" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C189">
         <v>1859</v>
@@ -5489,20 +5466,20 @@
         <v>28</v>
       </c>
       <c r="F189" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G189" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="H189" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>277</v>
-      </c>
-      <c r="B190" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B190" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C190">
@@ -5512,7 +5489,7 @@
         <v>10</v>
       </c>
       <c r="E190">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F190" t="s">
         <v>17</v>
@@ -5524,132 +5501,132 @@
         <v>9</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
+        <v>277</v>
+      </c>
+      <c r="B191" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C191">
+        <v>1859</v>
+      </c>
+      <c r="D191">
+        <v>11</v>
+      </c>
+      <c r="E191">
+        <v>2</v>
+      </c>
+      <c r="F191" t="s">
+        <v>25</v>
+      </c>
+      <c r="G191" t="s">
+        <v>187</v>
+      </c>
+      <c r="H191" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
         <v>278</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191">
-        <v>1859</v>
-      </c>
-      <c r="D191">
+      <c r="B192" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C192">
+        <v>1859</v>
+      </c>
+      <c r="D192">
         <v>10</v>
       </c>
-      <c r="E191">
+      <c r="E192">
         <v>31</v>
-      </c>
-      <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s">
-        <v>18</v>
-      </c>
-      <c r="H191" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
-        <v>279</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>186</v>
-      </c>
-      <c r="C192">
-        <v>1859</v>
-      </c>
-      <c r="D192">
-        <v>11</v>
-      </c>
-      <c r="E192">
-        <v>2</v>
       </c>
       <c r="F192" t="s">
         <v>25</v>
       </c>
       <c r="G192" t="s">
-        <v>187</v>
+        <v>280</v>
       </c>
       <c r="H192" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>280</v>
-      </c>
-      <c r="B193" s="3" t="s">
         <v>281</v>
       </c>
+      <c r="B193" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="C193">
         <v>1859</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
         <v>25</v>
       </c>
       <c r="G193" t="s">
+        <v>70</v>
+      </c>
+      <c r="H193" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
         <v>282</v>
       </c>
-      <c r="H193" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B194" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C194">
+        <v>1859</v>
+      </c>
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
         <v>283</v>
       </c>
-      <c r="B194" s="6" t="s">
+      <c r="B195" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C194">
-        <v>1859</v>
-      </c>
-      <c r="D194">
+      <c r="C195">
+        <v>1859</v>
+      </c>
+      <c r="D195">
         <v>11</v>
       </c>
-      <c r="E194">
-        <v>11</v>
-      </c>
-      <c r="F194" t="s">
+      <c r="E195">
+        <v>14</v>
+      </c>
+      <c r="F195" t="s">
         <v>25</v>
       </c>
-      <c r="G194" t="s">
+      <c r="G195" t="s">
         <v>70</v>
       </c>
-      <c r="H194" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="H195" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
         <v>284</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C195">
-        <v>1859</v>
-      </c>
-      <c r="G195" t="s">
-        <v>8</v>
-      </c>
-      <c r="H195" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
-        <v>285</v>
-      </c>
-      <c r="B196" s="6" t="s">
+      <c r="B196" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C196">
@@ -5671,12 +5648,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>286</v>
-      </c>
-      <c r="B197" s="6" t="s">
-        <v>69</v>
+        <v>285</v>
+      </c>
+      <c r="B197" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C197">
         <v>1859</v>
@@ -5688,20 +5665,20 @@
         <v>14</v>
       </c>
       <c r="F197" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G197" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H197" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>287</v>
-      </c>
-      <c r="B198" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B198" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C198">
@@ -5711,7 +5688,7 @@
         <v>11</v>
       </c>
       <c r="E198">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F198" t="s">
         <v>17</v>
@@ -5723,12 +5700,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>288</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>16</v>
+        <v>287</v>
+      </c>
+      <c r="B199" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C199">
         <v>1859</v>
@@ -5737,92 +5714,92 @@
         <v>11</v>
       </c>
       <c r="E199">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F199" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G199" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="H199" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
+        <v>288</v>
+      </c>
+      <c r="B200" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>6</v>
-      </c>
       <c r="C200">
         <v>1859</v>
       </c>
       <c r="D200">
-        <v>11</v>
-      </c>
-      <c r="E200">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>7</v>
-      </c>
-      <c r="G200" t="s">
-        <v>8</v>
-      </c>
-      <c r="H200" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="68" customHeight="1" x14ac:dyDescent="0.35">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>290</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C201">
+        <v>1859</v>
+      </c>
+      <c r="D201">
+        <v>11</v>
+      </c>
+      <c r="E201">
+        <v>19</v>
+      </c>
+      <c r="F201" t="s">
+        <v>7</v>
+      </c>
+      <c r="G201" t="s">
+        <v>8</v>
+      </c>
+      <c r="H201" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
         <v>291</v>
       </c>
-      <c r="C201">
-        <v>1859</v>
-      </c>
-      <c r="D201">
-        <v>10</v>
-      </c>
-      <c r="F201" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="B202" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C202">
+        <v>1859</v>
+      </c>
+      <c r="D202">
+        <v>12</v>
+      </c>
+      <c r="E202">
+        <v>7</v>
+      </c>
+      <c r="F202" t="s">
+        <v>25</v>
+      </c>
+      <c r="G202" t="s">
+        <v>70</v>
+      </c>
+      <c r="H202" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
         <v>292</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C202">
-        <v>1859</v>
-      </c>
-      <c r="D202">
-        <v>11</v>
-      </c>
-      <c r="E202">
-        <v>19</v>
-      </c>
-      <c r="F202" t="s">
-        <v>7</v>
-      </c>
-      <c r="G202" t="s">
-        <v>8</v>
-      </c>
-      <c r="H202" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>293</v>
-      </c>
-      <c r="B203" s="6" t="s">
+      <c r="B203" s="5" t="s">
         <v>69</v>
       </c>
       <c r="C203">
@@ -5844,12 +5821,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>294</v>
-      </c>
-      <c r="B204" s="6" t="s">
-        <v>69</v>
+        <v>293</v>
+      </c>
+      <c r="B204" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C204">
         <v>1859</v>
@@ -5858,24 +5835,24 @@
         <v>12</v>
       </c>
       <c r="E204">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F204" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G204" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="H204" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>295</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>16</v>
+        <v>294</v>
+      </c>
+      <c r="B205" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C205">
         <v>1859</v>
@@ -5884,23 +5861,23 @@
         <v>12</v>
       </c>
       <c r="E205">
+        <v>9</v>
+      </c>
+      <c r="F205" t="s">
+        <v>7</v>
+      </c>
+      <c r="G205" t="s">
         <v>8</v>
       </c>
-      <c r="F205" t="s">
-        <v>17</v>
-      </c>
-      <c r="G205" t="s">
-        <v>18</v>
-      </c>
       <c r="H205" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>296</v>
-      </c>
-      <c r="B206" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="B206" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C206">
@@ -5910,7 +5887,7 @@
         <v>12</v>
       </c>
       <c r="E206">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F206" t="s">
         <v>7</v>
@@ -5922,12 +5899,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>297</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>6</v>
+        <v>296</v>
+      </c>
+      <c r="B207" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="C207">
         <v>1859</v>
@@ -5939,21 +5916,21 @@
         <v>16</v>
       </c>
       <c r="F207" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="G207" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="H207" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>298</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>186</v>
+        <v>297</v>
+      </c>
+      <c r="B208" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="C208">
         <v>1859</v>
@@ -5962,76 +5939,76 @@
         <v>12</v>
       </c>
       <c r="E208">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F208" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="G208" t="s">
-        <v>187</v>
+        <v>18</v>
       </c>
       <c r="H208" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
+        <v>298</v>
+      </c>
+      <c r="B209" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C209">
+        <v>1859</v>
+      </c>
+      <c r="D209">
+        <v>10</v>
+      </c>
+      <c r="E209">
+        <v>20</v>
+      </c>
+      <c r="F209" t="s">
+        <v>36</v>
+      </c>
+      <c r="G209" t="s">
+        <v>37</v>
+      </c>
+      <c r="H209" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
         <v>299</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C209">
-        <v>1859</v>
-      </c>
-      <c r="D209">
+      <c r="B210" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C210">
+        <v>1859</v>
+      </c>
+      <c r="D210">
         <v>12</v>
       </c>
-      <c r="E209">
-        <v>17</v>
-      </c>
-      <c r="F209" t="s">
-        <v>17</v>
-      </c>
-      <c r="G209" t="s">
-        <v>18</v>
-      </c>
-      <c r="H209" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="E210">
+        <v>22</v>
+      </c>
+      <c r="F210" t="s">
+        <v>7</v>
+      </c>
+      <c r="G210" t="s">
+        <v>8</v>
+      </c>
+      <c r="H210" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
         <v>300</v>
       </c>
-      <c r="B210" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C210">
-        <v>1859</v>
-      </c>
-      <c r="D210">
-        <v>10</v>
-      </c>
-      <c r="E210">
-        <v>20</v>
-      </c>
-      <c r="F210" t="s">
-        <v>36</v>
-      </c>
-      <c r="G210" t="s">
-        <v>37</v>
-      </c>
-      <c r="H210" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="B211" s="5" t="s">
         <v>301</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>6</v>
       </c>
       <c r="C211">
         <v>1859</v>
@@ -6040,24 +6017,24 @@
         <v>12</v>
       </c>
       <c r="E211">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F211" t="s">
-        <v>7</v>
+        <v>302</v>
       </c>
       <c r="G211" t="s">
-        <v>8</v>
+        <v>303</v>
       </c>
       <c r="H211" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>302</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>303</v>
+        <v>304</v>
+      </c>
+      <c r="B212" s="5" t="s">
+        <v>301</v>
       </c>
       <c r="C212">
         <v>1859</v>
@@ -6069,21 +6046,21 @@
         <v>23</v>
       </c>
       <c r="F212" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G212" t="s">
+        <v>303</v>
+      </c>
+      <c r="H212" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
         <v>305</v>
       </c>
-      <c r="H212" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
-        <v>306</v>
-      </c>
-      <c r="B213" s="6" t="s">
-        <v>303</v>
+      <c r="B213" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="C213">
         <v>1859</v>
@@ -6092,24 +6069,24 @@
         <v>12</v>
       </c>
       <c r="E213">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F213" t="s">
-        <v>304</v>
+        <v>25</v>
       </c>
       <c r="G213" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="H213" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>307</v>
-      </c>
-      <c r="B214" s="6" t="s">
-        <v>39</v>
+        <v>306</v>
+      </c>
+      <c r="B214" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C214">
         <v>1859</v>
@@ -6118,24 +6095,24 @@
         <v>12</v>
       </c>
       <c r="E214">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F214" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="G214" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
       <c r="H214" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>308</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>6</v>
+        <v>307</v>
+      </c>
+      <c r="B215" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C215">
         <v>1859</v>
@@ -6144,23 +6121,23 @@
         <v>12</v>
       </c>
       <c r="E215">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F215" t="s">
         <v>7</v>
       </c>
       <c r="G215" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H215" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>309</v>
-      </c>
-      <c r="B216" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B216" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C216">
@@ -6182,49 +6159,49 @@
         <v>9</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
+        <v>309</v>
+      </c>
+      <c r="B217" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B217" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="C217">
-        <v>1859</v>
-      </c>
-      <c r="D217">
-        <v>12</v>
-      </c>
-      <c r="E217">
-        <v>28</v>
-      </c>
-      <c r="F217" t="s">
-        <v>7</v>
-      </c>
-      <c r="G217" t="s">
-        <v>12</v>
-      </c>
-      <c r="H217" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>311</v>
       </c>
-      <c r="B218" s="6" t="s">
+      <c r="B218" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C218">
+        <v>1859</v>
+      </c>
+      <c r="D218">
+        <v>12</v>
+      </c>
+      <c r="E218">
+        <v>29</v>
+      </c>
+      <c r="F218" t="s">
+        <v>7</v>
+      </c>
+      <c r="G218" t="s">
+        <v>8</v>
+      </c>
+      <c r="H218" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
         <v>312</v>
       </c>
-      <c r="C218">
-        <v>1856</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
-        <v>313</v>
-      </c>
-      <c r="B219" s="6" t="s">
-        <v>6</v>
+      <c r="B219" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C219">
         <v>1859</v>
@@ -6236,21 +6213,21 @@
         <v>29</v>
       </c>
       <c r="F219" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="G219" t="s">
-        <v>8</v>
+        <v>91</v>
       </c>
       <c r="H219" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>314</v>
-      </c>
-      <c r="B220" s="6" t="s">
-        <v>89</v>
+        <v>313</v>
+      </c>
+      <c r="B220" s="5" t="s">
+        <v>35</v>
       </c>
       <c r="C220">
         <v>1859</v>
@@ -6259,24 +6236,24 @@
         <v>12</v>
       </c>
       <c r="E220">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F220" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="G220" t="s">
-        <v>91</v>
+        <v>37</v>
       </c>
       <c r="H220" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>315</v>
-      </c>
-      <c r="B221" s="6" t="s">
-        <v>35</v>
+        <v>314</v>
+      </c>
+      <c r="B221" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="C221">
         <v>1859</v>
@@ -6285,707 +6262,695 @@
         <v>12</v>
       </c>
       <c r="E221">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F221" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
       <c r="G221" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="H221" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
-        <v>316</v>
-      </c>
-      <c r="B222" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C222">
-        <v>1859</v>
-      </c>
-      <c r="D222">
-        <v>12</v>
-      </c>
-      <c r="E222">
-        <v>29</v>
-      </c>
-      <c r="F222" t="s">
-        <v>90</v>
-      </c>
-      <c r="G222" t="s">
-        <v>91</v>
-      </c>
-      <c r="H222" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="6"/>
-    </row>
-    <row r="224" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="6"/>
-    </row>
-    <row r="225" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B225" s="6"/>
-    </row>
-    <row r="226" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B226" s="6"/>
-    </row>
-    <row r="227" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B227" s="6"/>
-    </row>
-    <row r="228" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="6"/>
-    </row>
-    <row r="229" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B229" s="6"/>
-    </row>
-    <row r="230" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B230" s="6"/>
-    </row>
-    <row r="231" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B231" s="6"/>
-    </row>
-    <row r="232" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="6"/>
-    </row>
-    <row r="233" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="6"/>
-    </row>
-    <row r="234" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B234" s="3"/>
-    </row>
-    <row r="235" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B235" s="6"/>
-    </row>
-    <row r="236" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="6"/>
-    </row>
-    <row r="237" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B237" s="6"/>
-    </row>
-    <row r="238" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B238" s="6"/>
-    </row>
-    <row r="239" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="6"/>
-    </row>
-    <row r="240" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="6"/>
-    </row>
-    <row r="241" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="6"/>
-    </row>
-    <row r="242" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="6"/>
-    </row>
-    <row r="243" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="6"/>
-    </row>
-    <row r="244" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B244" s="6"/>
-    </row>
-    <row r="245" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B245" s="6"/>
-    </row>
-    <row r="246" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B246" s="6"/>
-    </row>
-    <row r="247" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B247" s="6"/>
-    </row>
-    <row r="248" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B248" s="6"/>
-    </row>
-    <row r="249" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B249" s="6"/>
-    </row>
-    <row r="250" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B250" s="6"/>
-    </row>
-    <row r="251" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B251" s="6"/>
-    </row>
-    <row r="252" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B252" s="6"/>
-    </row>
-    <row r="253" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B253" s="6"/>
-    </row>
-    <row r="254" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B254" s="6"/>
-    </row>
-    <row r="255" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B222" s="5"/>
+    </row>
+    <row r="223" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B223" s="5"/>
+    </row>
+    <row r="224" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B224" s="5"/>
+    </row>
+    <row r="225" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B225" s="5"/>
+    </row>
+    <row r="226" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B226" s="5"/>
+    </row>
+    <row r="227" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B227" s="5"/>
+    </row>
+    <row r="228" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B228" s="5"/>
+    </row>
+    <row r="229" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B229" s="5"/>
+    </row>
+    <row r="230" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B230" s="5"/>
+    </row>
+    <row r="231" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B231" s="5"/>
+    </row>
+    <row r="232" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B232" s="5"/>
+    </row>
+    <row r="233" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B233" s="3"/>
+    </row>
+    <row r="234" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B234" s="5"/>
+    </row>
+    <row r="235" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B235" s="5"/>
+    </row>
+    <row r="236" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B236" s="5"/>
+    </row>
+    <row r="237" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B237" s="5"/>
+    </row>
+    <row r="238" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B238" s="5"/>
+    </row>
+    <row r="239" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B239" s="5"/>
+    </row>
+    <row r="240" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B240" s="5"/>
+    </row>
+    <row r="241" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B241" s="5"/>
+    </row>
+    <row r="242" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B242" s="5"/>
+    </row>
+    <row r="243" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B243" s="5"/>
+    </row>
+    <row r="244" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B244" s="5"/>
+    </row>
+    <row r="245" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B245" s="5"/>
+    </row>
+    <row r="246" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B246" s="5"/>
+    </row>
+    <row r="247" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B247" s="5"/>
+    </row>
+    <row r="248" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B248" s="5"/>
+    </row>
+    <row r="249" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B249" s="5"/>
+    </row>
+    <row r="250" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B250" s="5"/>
+    </row>
+    <row r="251" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B251" s="5"/>
+    </row>
+    <row r="252" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B252" s="5"/>
+    </row>
+    <row r="253" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B253" s="5"/>
+    </row>
+    <row r="254" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B254" s="4"/>
+    </row>
+    <row r="255" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B255" s="4"/>
     </row>
-    <row r="256" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B256" s="4"/>
-    </row>
-    <row r="257" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B257" s="6"/>
-    </row>
-    <row r="258" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B258" s="6"/>
-    </row>
-    <row r="259" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B259" s="6"/>
-    </row>
-    <row r="260" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B260" s="6"/>
-    </row>
-    <row r="261" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="6"/>
-    </row>
-    <row r="262" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B262" s="6"/>
-    </row>
-    <row r="263" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="6"/>
-    </row>
-    <row r="264" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B264" s="6"/>
-    </row>
-    <row r="265" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B265" s="6"/>
-    </row>
-    <row r="266" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="6"/>
-    </row>
-    <row r="267" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B267" s="6"/>
-    </row>
-    <row r="268" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B268" s="6"/>
-    </row>
-    <row r="269" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="6"/>
-    </row>
-    <row r="270" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="6"/>
-    </row>
-    <row r="271" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="6"/>
-    </row>
-    <row r="272" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="6"/>
-    </row>
-    <row r="273" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="6"/>
-    </row>
-    <row r="274" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B274" s="6"/>
-    </row>
-    <row r="275" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B275" s="6"/>
-    </row>
-    <row r="276" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B276" s="6"/>
-    </row>
-    <row r="277" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="6"/>
-    </row>
-    <row r="278" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B278" s="6"/>
-    </row>
-    <row r="279" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="6"/>
-    </row>
-    <row r="280" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B280" s="6"/>
-    </row>
-    <row r="281" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B281" s="6"/>
-    </row>
-    <row r="282" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B282" s="6"/>
-    </row>
-    <row r="283" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B283" s="6"/>
-    </row>
-    <row r="284" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="6"/>
-    </row>
-    <row r="285" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="6"/>
-    </row>
-    <row r="286" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B286" s="6"/>
-    </row>
-    <row r="287" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="6"/>
-    </row>
-    <row r="288" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="4"/>
-    </row>
-    <row r="289" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="2"/>
-    </row>
-    <row r="290" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B290" s="6"/>
-    </row>
-    <row r="291" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="6"/>
-    </row>
-    <row r="292" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B292" s="6"/>
-    </row>
-    <row r="293" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B293" s="6"/>
-    </row>
-    <row r="294" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B294" s="6"/>
-    </row>
-    <row r="295" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B295" s="6"/>
-    </row>
-    <row r="296" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="6"/>
-    </row>
-    <row r="297" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B297" s="6"/>
-    </row>
-    <row r="298" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B298" s="6"/>
-    </row>
-    <row r="299" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B299" s="6"/>
-    </row>
-    <row r="300" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B300" s="6"/>
-    </row>
-    <row r="301" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B301" s="6"/>
-    </row>
-    <row r="302" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B302" s="6"/>
-    </row>
-    <row r="303" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B303" s="6"/>
-    </row>
-    <row r="304" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B304" s="6"/>
-    </row>
-    <row r="305" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="6"/>
-    </row>
-    <row r="306" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B306" s="6"/>
-    </row>
-    <row r="307" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B307" s="6"/>
-    </row>
-    <row r="308" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B308" s="6"/>
-    </row>
-    <row r="309" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="6"/>
-    </row>
-    <row r="310" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="6"/>
-    </row>
-    <row r="311" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="6"/>
-    </row>
-    <row r="312" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="3"/>
-    </row>
-    <row r="313" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="6"/>
-    </row>
-    <row r="314" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="6"/>
-    </row>
-    <row r="315" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="6"/>
-    </row>
-    <row r="316" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B316" s="6"/>
-    </row>
-    <row r="317" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B317" s="6"/>
-    </row>
-    <row r="318" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="3"/>
-    </row>
-    <row r="319" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B319" s="6"/>
-    </row>
-    <row r="320" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B320" s="6"/>
-    </row>
-    <row r="321" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B321" s="6"/>
-    </row>
-    <row r="322" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B322" s="6"/>
-    </row>
-    <row r="323" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B323" s="6"/>
-    </row>
-    <row r="324" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B324" s="6"/>
-    </row>
-    <row r="325" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B325" s="6"/>
-    </row>
-    <row r="326" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B326" s="6"/>
-    </row>
-    <row r="327" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B327" s="6"/>
-    </row>
-    <row r="328" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B328" s="6"/>
-    </row>
-    <row r="329" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B329" s="6"/>
-    </row>
-    <row r="330" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B330" s="6"/>
-    </row>
-    <row r="331" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B331" s="6"/>
-    </row>
-    <row r="332" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B332" s="6"/>
-    </row>
-    <row r="333" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B256" s="5"/>
+    </row>
+    <row r="257" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B257" s="5"/>
+    </row>
+    <row r="258" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B258" s="5"/>
+    </row>
+    <row r="259" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B259" s="5"/>
+    </row>
+    <row r="260" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B260" s="5"/>
+    </row>
+    <row r="261" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B261" s="5"/>
+    </row>
+    <row r="262" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B262" s="5"/>
+    </row>
+    <row r="263" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B263" s="5"/>
+    </row>
+    <row r="264" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B264" s="5"/>
+    </row>
+    <row r="265" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B265" s="5"/>
+    </row>
+    <row r="266" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B266" s="5"/>
+    </row>
+    <row r="267" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B267" s="5"/>
+    </row>
+    <row r="268" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B268" s="5"/>
+    </row>
+    <row r="269" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B269" s="5"/>
+    </row>
+    <row r="270" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B270" s="5"/>
+    </row>
+    <row r="271" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B271" s="5"/>
+    </row>
+    <row r="272" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B272" s="5"/>
+    </row>
+    <row r="273" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B273" s="5"/>
+    </row>
+    <row r="274" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B274" s="5"/>
+    </row>
+    <row r="275" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B275" s="5"/>
+    </row>
+    <row r="276" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B276" s="5"/>
+    </row>
+    <row r="277" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B277" s="5"/>
+    </row>
+    <row r="278" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B278" s="5"/>
+    </row>
+    <row r="279" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B279" s="5"/>
+    </row>
+    <row r="280" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B280" s="5"/>
+    </row>
+    <row r="281" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B281" s="5"/>
+    </row>
+    <row r="282" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B282" s="5"/>
+    </row>
+    <row r="283" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B283" s="5"/>
+    </row>
+    <row r="284" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B284" s="5"/>
+    </row>
+    <row r="285" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B285" s="5"/>
+    </row>
+    <row r="286" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B286" s="5"/>
+    </row>
+    <row r="287" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B287" s="4"/>
+    </row>
+    <row r="288" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B289" s="5"/>
+    </row>
+    <row r="290" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B290" s="5"/>
+    </row>
+    <row r="291" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B291" s="5"/>
+    </row>
+    <row r="292" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B292" s="5"/>
+    </row>
+    <row r="293" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B293" s="5"/>
+    </row>
+    <row r="294" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B294" s="5"/>
+    </row>
+    <row r="295" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B295" s="5"/>
+    </row>
+    <row r="296" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B296" s="5"/>
+    </row>
+    <row r="297" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B297" s="5"/>
+    </row>
+    <row r="298" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B298" s="5"/>
+    </row>
+    <row r="299" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B299" s="5"/>
+    </row>
+    <row r="300" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B300" s="5"/>
+    </row>
+    <row r="301" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B301" s="5"/>
+    </row>
+    <row r="302" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B302" s="5"/>
+    </row>
+    <row r="303" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B303" s="5"/>
+    </row>
+    <row r="304" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B304" s="5"/>
+    </row>
+    <row r="305" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B305" s="5"/>
+    </row>
+    <row r="306" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B306" s="5"/>
+    </row>
+    <row r="307" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B307" s="5"/>
+    </row>
+    <row r="308" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B308" s="5"/>
+    </row>
+    <row r="309" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B309" s="5"/>
+    </row>
+    <row r="310" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B310" s="5"/>
+    </row>
+    <row r="311" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B311" s="3"/>
+    </row>
+    <row r="312" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B312" s="5"/>
+    </row>
+    <row r="313" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B313" s="5"/>
+    </row>
+    <row r="314" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B314" s="5"/>
+    </row>
+    <row r="315" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B315" s="5"/>
+    </row>
+    <row r="316" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B316" s="5"/>
+    </row>
+    <row r="317" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B317" s="3"/>
+    </row>
+    <row r="318" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B318" s="5"/>
+    </row>
+    <row r="319" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B319" s="5"/>
+    </row>
+    <row r="320" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B320" s="5"/>
+    </row>
+    <row r="321" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B321" s="5"/>
+    </row>
+    <row r="322" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B322" s="5"/>
+    </row>
+    <row r="323" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B323" s="5"/>
+    </row>
+    <row r="324" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B324" s="5"/>
+    </row>
+    <row r="325" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B325" s="5"/>
+    </row>
+    <row r="326" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B326" s="5"/>
+    </row>
+    <row r="327" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B327" s="5"/>
+    </row>
+    <row r="328" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B328" s="5"/>
+    </row>
+    <row r="329" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B329" s="5"/>
+    </row>
+    <row r="330" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B330" s="5"/>
+    </row>
+    <row r="331" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B331" s="5"/>
+    </row>
+    <row r="332" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B332" s="3"/>
+    </row>
+    <row r="333" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B333" s="3"/>
     </row>
-    <row r="334" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B334" s="3"/>
     </row>
-    <row r="335" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B335" s="3"/>
-    </row>
-    <row r="336" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B336" s="6"/>
-    </row>
-    <row r="337" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B337" s="6"/>
-    </row>
-    <row r="338" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B338" s="3"/>
-    </row>
-    <row r="339" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B339" s="6"/>
-    </row>
-    <row r="340" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B335" s="5"/>
+    </row>
+    <row r="336" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B336" s="5"/>
+    </row>
+    <row r="337" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B337" s="3"/>
+    </row>
+    <row r="338" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B338" s="5"/>
+    </row>
+    <row r="339" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B339" s="3"/>
+    </row>
+    <row r="340" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B340" s="3"/>
     </row>
-    <row r="341" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B341" s="3"/>
     </row>
-    <row r="342" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B342" s="3"/>
     </row>
-    <row r="343" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B343" s="3"/>
-    </row>
-    <row r="344" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B344" s="6"/>
-    </row>
-    <row r="345" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B345" s="6"/>
-    </row>
-    <row r="346" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B346" s="6"/>
-    </row>
-    <row r="347" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B347" s="6"/>
-    </row>
-    <row r="348" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B348" s="6"/>
-    </row>
-    <row r="349" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B349" s="6"/>
-    </row>
-    <row r="350" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B350" s="6"/>
-    </row>
-    <row r="351" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B351" s="6"/>
-    </row>
-    <row r="352" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B352" s="6"/>
-    </row>
-    <row r="353" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B353" s="6"/>
-    </row>
-    <row r="354" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B354" s="6"/>
-    </row>
-    <row r="355" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B355" s="6"/>
-    </row>
-    <row r="356" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B356" s="6"/>
-    </row>
-    <row r="357" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B357" s="6"/>
-    </row>
-    <row r="358" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B358" s="6"/>
-    </row>
-    <row r="359" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B359" s="6"/>
-    </row>
-    <row r="360" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B360" s="6"/>
-    </row>
-    <row r="361" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B361" s="6"/>
-    </row>
-    <row r="362" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B362" s="6"/>
-    </row>
-    <row r="363" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B363" s="6"/>
-    </row>
-    <row r="364" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B364" s="6"/>
-    </row>
-    <row r="365" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B365" s="6"/>
-    </row>
-    <row r="366" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B366" s="6"/>
-    </row>
-    <row r="367" spans="2:2" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B367" s="6"/>
-    </row>
-    <row r="368" spans="2:2" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B368" s="6"/>
-    </row>
-    <row r="369" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B369" s="6"/>
-    </row>
-    <row r="370" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B370" s="6"/>
-    </row>
-    <row r="371" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B343" s="5"/>
+    </row>
+    <row r="344" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B344" s="5"/>
+    </row>
+    <row r="345" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B345" s="5"/>
+    </row>
+    <row r="346" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B346" s="5"/>
+    </row>
+    <row r="347" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B347" s="5"/>
+    </row>
+    <row r="348" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B348" s="5"/>
+    </row>
+    <row r="349" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B349" s="5"/>
+    </row>
+    <row r="350" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B350" s="5"/>
+    </row>
+    <row r="351" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B351" s="5"/>
+    </row>
+    <row r="352" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B352" s="5"/>
+    </row>
+    <row r="353" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B353" s="5"/>
+    </row>
+    <row r="354" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B354" s="5"/>
+    </row>
+    <row r="355" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B355" s="5"/>
+    </row>
+    <row r="356" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B356" s="5"/>
+    </row>
+    <row r="357" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B357" s="5"/>
+    </row>
+    <row r="358" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B358" s="5"/>
+    </row>
+    <row r="359" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B359" s="5"/>
+    </row>
+    <row r="360" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B360" s="5"/>
+    </row>
+    <row r="361" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B361" s="5"/>
+    </row>
+    <row r="362" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B362" s="5"/>
+    </row>
+    <row r="363" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B363" s="5"/>
+    </row>
+    <row r="364" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B364" s="5"/>
+    </row>
+    <row r="365" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B365" s="5"/>
+    </row>
+    <row r="366" spans="2:2" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B366" s="5"/>
+    </row>
+    <row r="367" spans="2:2" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B367" s="5"/>
+    </row>
+    <row r="368" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B368" s="5"/>
+    </row>
+    <row r="369" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B369" s="5"/>
+    </row>
+    <row r="370" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B370" s="3"/>
+    </row>
+    <row r="371" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B371" s="3"/>
     </row>
-    <row r="372" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B372" s="3"/>
     </row>
-    <row r="373" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B373" s="3"/>
     </row>
-    <row r="374" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B374" s="3"/>
-    </row>
-    <row r="375" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B375" s="6"/>
-    </row>
-    <row r="376" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B376" s="6"/>
-    </row>
-    <row r="377" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B377" s="6"/>
-    </row>
-    <row r="378" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B378" s="6"/>
-    </row>
-    <row r="379" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B379" s="6"/>
-    </row>
-    <row r="380" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B380" s="6"/>
-    </row>
-    <row r="381" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B381" s="6"/>
-    </row>
-    <row r="382" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B382" s="6"/>
-    </row>
-    <row r="383" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B383" s="6"/>
-    </row>
-    <row r="384" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B384" s="6"/>
-    </row>
-    <row r="385" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B385" s="6"/>
-    </row>
-    <row r="386" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B386" s="6"/>
-    </row>
-    <row r="387" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B387" s="6"/>
-    </row>
-    <row r="388" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B388" s="6"/>
-    </row>
-    <row r="389" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B389" s="6"/>
-    </row>
-    <row r="390" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B390" s="6"/>
-    </row>
-    <row r="391" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B391" s="6"/>
-    </row>
-    <row r="392" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B392" s="6"/>
-    </row>
-    <row r="393" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B393" s="6"/>
-    </row>
-    <row r="394" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B394" s="6"/>
-    </row>
-    <row r="395" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B395" s="6"/>
-    </row>
-    <row r="396" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B396" s="6"/>
-    </row>
-    <row r="397" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B397" s="6"/>
-    </row>
-    <row r="398" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B398" s="6"/>
-    </row>
-    <row r="399" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B399" s="6"/>
-    </row>
-    <row r="400" spans="2:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B400" s="6"/>
-      <c r="J400" s="7"/>
-    </row>
-    <row r="401" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B401" s="6"/>
-      <c r="J401" s="7"/>
-    </row>
-    <row r="402" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B402" s="6"/>
-      <c r="J402" s="7"/>
-    </row>
-    <row r="403" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B403" s="6"/>
-      <c r="J403" s="7"/>
-    </row>
-    <row r="404" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B404" s="6"/>
-      <c r="J404" s="7"/>
-    </row>
-    <row r="405" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B405" s="6"/>
+    <row r="374" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B374" s="5"/>
+    </row>
+    <row r="375" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B375" s="5"/>
+    </row>
+    <row r="376" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B376" s="5"/>
+    </row>
+    <row r="377" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B377" s="5"/>
+    </row>
+    <row r="378" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B378" s="5"/>
+    </row>
+    <row r="379" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B379" s="5"/>
+    </row>
+    <row r="380" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B380" s="5"/>
+    </row>
+    <row r="381" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B381" s="5"/>
+    </row>
+    <row r="382" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B382" s="5"/>
+    </row>
+    <row r="383" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B383" s="5"/>
+    </row>
+    <row r="384" spans="2:2" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B384" s="5"/>
+    </row>
+    <row r="385" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B385" s="5"/>
+    </row>
+    <row r="386" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B386" s="5"/>
+    </row>
+    <row r="387" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B387" s="5"/>
+    </row>
+    <row r="388" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B388" s="5"/>
+    </row>
+    <row r="389" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B389" s="5"/>
+    </row>
+    <row r="390" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B390" s="5"/>
+    </row>
+    <row r="391" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B391" s="5"/>
+    </row>
+    <row r="392" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B392" s="5"/>
+    </row>
+    <row r="393" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B393" s="5"/>
+    </row>
+    <row r="394" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B394" s="5"/>
+    </row>
+    <row r="395" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B395" s="5"/>
+    </row>
+    <row r="396" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B396" s="5"/>
+    </row>
+    <row r="397" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B397" s="5"/>
+    </row>
+    <row r="398" spans="2:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B398" s="5"/>
+    </row>
+    <row r="399" spans="2:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B399" s="5"/>
+      <c r="J399" s="6"/>
+    </row>
+    <row r="400" spans="2:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B400" s="5"/>
+      <c r="J400" s="6"/>
+    </row>
+    <row r="401" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B401" s="5"/>
+      <c r="J401" s="6"/>
+    </row>
+    <row r="402" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B402" s="5"/>
+      <c r="J402" s="6"/>
+    </row>
+    <row r="403" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B403" s="5"/>
+      <c r="J403" s="6"/>
+    </row>
+    <row r="404" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B404" s="5"/>
+      <c r="D404" s="1"/>
+      <c r="E404" s="1"/>
+      <c r="F404" s="1"/>
+    </row>
+    <row r="405" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B405" s="5"/>
       <c r="D405" s="1"/>
       <c r="E405" s="1"/>
       <c r="F405" s="1"/>
     </row>
-    <row r="406" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B406" s="6"/>
+    <row r="406" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B406" s="5"/>
       <c r="D406" s="1"/>
       <c r="E406" s="1"/>
       <c r="F406" s="1"/>
     </row>
-    <row r="407" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B407" s="6"/>
+    <row r="407" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B407" s="5"/>
       <c r="D407" s="1"/>
       <c r="E407" s="1"/>
       <c r="F407" s="1"/>
     </row>
-    <row r="408" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B408" s="6"/>
+    <row r="408" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B408" s="2"/>
       <c r="D408" s="1"/>
       <c r="E408" s="1"/>
       <c r="F408" s="1"/>
     </row>
-    <row r="409" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A409" s="1"/>
       <c r="B409" s="2"/>
-      <c r="D409" s="1"/>
-      <c r="E409" s="1"/>
-      <c r="F409" s="1"/>
-    </row>
-    <row r="410" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="410" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="1"/>
       <c r="B410" s="2"/>
-    </row>
-    <row r="411" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D410" s="1"/>
+      <c r="E410" s="1"/>
+      <c r="F410" s="1"/>
+    </row>
+    <row r="411" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="1"/>
       <c r="B411" s="2"/>
       <c r="D411" s="1"/>
       <c r="E411" s="1"/>
       <c r="F411" s="1"/>
     </row>
-    <row r="412" spans="1:10" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1"/>
       <c r="B412" s="2"/>
       <c r="D412" s="1"/>
       <c r="E412" s="1"/>
       <c r="F412" s="1"/>
     </row>
-    <row r="413" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1"/>
       <c r="B413" s="2"/>
       <c r="D413" s="1"/>
       <c r="E413" s="1"/>
       <c r="F413" s="1"/>
     </row>
-    <row r="414" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1"/>
       <c r="B414" s="2"/>
       <c r="D414" s="1"/>
       <c r="E414" s="1"/>
       <c r="F414" s="1"/>
     </row>
-    <row r="415" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1"/>
       <c r="B415" s="2"/>
       <c r="D415" s="1"/>
       <c r="E415" s="1"/>
       <c r="F415" s="1"/>
     </row>
-    <row r="416" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:10" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1"/>
       <c r="B416" s="2"/>
       <c r="D416" s="1"/>
       <c r="E416" s="1"/>
       <c r="F416" s="1"/>
     </row>
-    <row r="417" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1"/>
       <c r="B417" s="2"/>
       <c r="D417" s="1"/>
       <c r="E417" s="1"/>
       <c r="F417" s="1"/>
     </row>
-    <row r="418" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="1"/>
       <c r="B418" s="2"/>
       <c r="D418" s="1"/>
       <c r="E418" s="1"/>
       <c r="F418" s="1"/>
     </row>
-    <row r="419" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="1"/>
       <c r="B419" s="2"/>
       <c r="D419" s="1"/>
       <c r="E419" s="1"/>
       <c r="F419" s="1"/>
     </row>
-    <row r="420" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1"/>
-      <c r="B420" s="2"/>
+      <c r="B420" s="5"/>
       <c r="D420" s="1"/>
       <c r="E420" s="1"/>
       <c r="F420" s="1"/>
     </row>
-    <row r="421" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1"/>
-      <c r="B421" s="6"/>
+      <c r="B421" s="2"/>
       <c r="D421" s="1"/>
       <c r="E421" s="1"/>
       <c r="F421" s="1"/>
-    </row>
-    <row r="422" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G421" s="1"/>
+      <c r="H421" s="1"/>
+      <c r="I421" s="1"/>
+      <c r="K421" s="1"/>
+      <c r="L421" s="1"/>
+      <c r="M421" s="1"/>
+      <c r="N421" s="1"/>
+    </row>
+    <row r="422" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="1"/>
       <c r="B422" s="2"/>
       <c r="D422" s="1"/>
@@ -6999,7 +6964,7 @@
       <c r="M422" s="1"/>
       <c r="N422" s="1"/>
     </row>
-    <row r="423" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1"/>
       <c r="B423" s="2"/>
       <c r="D423" s="1"/>
@@ -7013,9 +6978,9 @@
       <c r="M423" s="1"/>
       <c r="N423" s="1"/>
     </row>
-    <row r="424" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1"/>
-      <c r="B424" s="2"/>
+      <c r="B424" s="5"/>
       <c r="D424" s="1"/>
       <c r="E424" s="1"/>
       <c r="F424" s="1"/>
@@ -7027,9 +6992,9 @@
       <c r="M424" s="1"/>
       <c r="N424" s="1"/>
     </row>
-    <row r="425" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="1"/>
-      <c r="B425" s="6"/>
+      <c r="B425" s="5"/>
       <c r="D425" s="1"/>
       <c r="E425" s="1"/>
       <c r="F425" s="1"/>
@@ -7041,9 +7006,9 @@
       <c r="M425" s="1"/>
       <c r="N425" s="1"/>
     </row>
-    <row r="426" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="1"/>
-      <c r="B426" s="6"/>
+      <c r="B426" s="2"/>
       <c r="D426" s="1"/>
       <c r="E426" s="1"/>
       <c r="F426" s="1"/>
@@ -7055,9 +7020,9 @@
       <c r="M426" s="1"/>
       <c r="N426" s="1"/>
     </row>
-    <row r="427" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="1"/>
-      <c r="B427" s="2"/>
+      <c r="B427" s="5"/>
       <c r="D427" s="1"/>
       <c r="E427" s="1"/>
       <c r="F427" s="1"/>
@@ -7069,9 +7034,9 @@
       <c r="M427" s="1"/>
       <c r="N427" s="1"/>
     </row>
-    <row r="428" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="1"/>
-      <c r="B428" s="6"/>
+      <c r="B428" s="2"/>
       <c r="D428" s="1"/>
       <c r="E428" s="1"/>
       <c r="F428" s="1"/>
@@ -7083,9 +7048,10 @@
       <c r="M428" s="1"/>
       <c r="N428" s="1"/>
     </row>
-    <row r="429" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1"/>
       <c r="B429" s="2"/>
+      <c r="C429" s="1"/>
       <c r="D429" s="1"/>
       <c r="E429" s="1"/>
       <c r="F429" s="1"/>
@@ -7097,10 +7063,9 @@
       <c r="M429" s="1"/>
       <c r="N429" s="1"/>
     </row>
-    <row r="430" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1"/>
       <c r="B430" s="2"/>
-      <c r="C430" s="1"/>
       <c r="D430" s="1"/>
       <c r="E430" s="1"/>
       <c r="F430" s="1"/>
@@ -7112,7 +7077,7 @@
       <c r="M430" s="1"/>
       <c r="N430" s="1"/>
     </row>
-    <row r="431" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1"/>
       <c r="B431" s="2"/>
       <c r="D431" s="1"/>
@@ -7126,7 +7091,7 @@
       <c r="M431" s="1"/>
       <c r="N431" s="1"/>
     </row>
-    <row r="432" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1"/>
       <c r="B432" s="2"/>
       <c r="D432" s="1"/>
@@ -7140,7 +7105,7 @@
       <c r="M432" s="1"/>
       <c r="N432" s="1"/>
     </row>
-    <row r="433" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1"/>
       <c r="B433" s="2"/>
       <c r="D433" s="1"/>
@@ -7154,7 +7119,7 @@
       <c r="M433" s="1"/>
       <c r="N433" s="1"/>
     </row>
-    <row r="434" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1"/>
       <c r="B434" s="2"/>
       <c r="D434" s="1"/>
@@ -7168,7 +7133,7 @@
       <c r="M434" s="1"/>
       <c r="N434" s="1"/>
     </row>
-    <row r="435" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="1"/>
       <c r="B435" s="2"/>
       <c r="D435" s="1"/>
@@ -7182,7 +7147,7 @@
       <c r="M435" s="1"/>
       <c r="N435" s="1"/>
     </row>
-    <row r="436" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="1"/>
       <c r="B436" s="2"/>
       <c r="D436" s="1"/>
@@ -7196,7 +7161,7 @@
       <c r="M436" s="1"/>
       <c r="N436" s="1"/>
     </row>
-    <row r="437" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1"/>
       <c r="B437" s="2"/>
       <c r="D437" s="1"/>
@@ -7210,9 +7175,10 @@
       <c r="M437" s="1"/>
       <c r="N437" s="1"/>
     </row>
-    <row r="438" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="1"/>
-      <c r="B438" s="2"/>
+      <c r="B438" s="5"/>
+      <c r="C438" s="1"/>
       <c r="D438" s="1"/>
       <c r="E438" s="1"/>
       <c r="F438" s="1"/>
@@ -7224,9 +7190,9 @@
       <c r="M438" s="1"/>
       <c r="N438" s="1"/>
     </row>
-    <row r="439" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="1"/>
-      <c r="B439" s="6"/>
+      <c r="B439" s="5"/>
       <c r="C439" s="1"/>
       <c r="D439" s="1"/>
       <c r="E439" s="1"/>
@@ -7239,9 +7205,9 @@
       <c r="M439" s="1"/>
       <c r="N439" s="1"/>
     </row>
-    <row r="440" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="1"/>
-      <c r="B440" s="6"/>
+      <c r="B440" s="5"/>
       <c r="C440" s="1"/>
       <c r="D440" s="1"/>
       <c r="E440" s="1"/>
@@ -7254,9 +7220,9 @@
       <c r="M440" s="1"/>
       <c r="N440" s="1"/>
     </row>
-    <row r="441" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="1"/>
-      <c r="B441" s="6"/>
+      <c r="B441" s="5"/>
       <c r="C441" s="1"/>
       <c r="D441" s="1"/>
       <c r="E441" s="1"/>
@@ -7269,9 +7235,9 @@
       <c r="M441" s="1"/>
       <c r="N441" s="1"/>
     </row>
-    <row r="442" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="1"/>
-      <c r="B442" s="6"/>
+      <c r="B442" s="5"/>
       <c r="C442" s="1"/>
       <c r="D442" s="1"/>
       <c r="E442" s="1"/>
@@ -7284,9 +7250,9 @@
       <c r="M442" s="1"/>
       <c r="N442" s="1"/>
     </row>
-    <row r="443" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="1"/>
-      <c r="B443" s="6"/>
+      <c r="B443" s="5"/>
       <c r="C443" s="1"/>
       <c r="D443" s="1"/>
       <c r="E443" s="1"/>
@@ -7299,9 +7265,9 @@
       <c r="M443" s="1"/>
       <c r="N443" s="1"/>
     </row>
-    <row r="444" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="1"/>
-      <c r="B444" s="6"/>
+      <c r="B444" s="5"/>
       <c r="C444" s="1"/>
       <c r="D444" s="1"/>
       <c r="E444" s="1"/>
@@ -7314,9 +7280,9 @@
       <c r="M444" s="1"/>
       <c r="N444" s="1"/>
     </row>
-    <row r="445" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="1"/>
-      <c r="B445" s="6"/>
+      <c r="B445" s="2"/>
       <c r="C445" s="1"/>
       <c r="D445" s="1"/>
       <c r="E445" s="1"/>
@@ -7329,9 +7295,9 @@
       <c r="M445" s="1"/>
       <c r="N445" s="1"/>
     </row>
-    <row r="446" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="1"/>
-      <c r="B446" s="2"/>
+      <c r="B446" s="5"/>
       <c r="C446" s="1"/>
       <c r="D446" s="1"/>
       <c r="E446" s="1"/>
@@ -7344,9 +7310,9 @@
       <c r="M446" s="1"/>
       <c r="N446" s="1"/>
     </row>
-    <row r="447" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="1"/>
-      <c r="B447" s="6"/>
+      <c r="B447" s="5"/>
       <c r="C447" s="1"/>
       <c r="D447" s="1"/>
       <c r="E447" s="1"/>
@@ -7359,9 +7325,9 @@
       <c r="M447" s="1"/>
       <c r="N447" s="1"/>
     </row>
-    <row r="448" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="1"/>
-      <c r="B448" s="6"/>
+      <c r="B448" s="2"/>
       <c r="C448" s="1"/>
       <c r="D448" s="1"/>
       <c r="E448" s="1"/>
@@ -7374,7 +7340,7 @@
       <c r="M448" s="1"/>
       <c r="N448" s="1"/>
     </row>
-    <row r="449" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="1"/>
       <c r="B449" s="2"/>
       <c r="C449" s="1"/>
@@ -7389,9 +7355,9 @@
       <c r="M449" s="1"/>
       <c r="N449" s="1"/>
     </row>
-    <row r="450" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="1"/>
-      <c r="B450" s="2"/>
+      <c r="B450" s="5"/>
       <c r="C450" s="1"/>
       <c r="D450" s="1"/>
       <c r="E450" s="1"/>
@@ -7404,9 +7370,9 @@
       <c r="M450" s="1"/>
       <c r="N450" s="1"/>
     </row>
-    <row r="451" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="1"/>
-      <c r="B451" s="6"/>
+      <c r="B451" s="5"/>
       <c r="C451" s="1"/>
       <c r="D451" s="1"/>
       <c r="E451" s="1"/>
@@ -7419,9 +7385,9 @@
       <c r="M451" s="1"/>
       <c r="N451" s="1"/>
     </row>
-    <row r="452" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="1"/>
-      <c r="B452" s="6"/>
+      <c r="B452" s="5"/>
       <c r="C452" s="1"/>
       <c r="D452" s="1"/>
       <c r="E452" s="1"/>
@@ -7434,9 +7400,9 @@
       <c r="M452" s="1"/>
       <c r="N452" s="1"/>
     </row>
-    <row r="453" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="1"/>
-      <c r="B453" s="6"/>
+      <c r="B453" s="2"/>
       <c r="C453" s="1"/>
       <c r="D453" s="1"/>
       <c r="E453" s="1"/>
@@ -7449,9 +7415,9 @@
       <c r="M453" s="1"/>
       <c r="N453" s="1"/>
     </row>
-    <row r="454" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="1"/>
-      <c r="B454" s="2"/>
+      <c r="B454" s="5"/>
       <c r="C454" s="1"/>
       <c r="D454" s="1"/>
       <c r="E454" s="1"/>
@@ -7464,9 +7430,9 @@
       <c r="M454" s="1"/>
       <c r="N454" s="1"/>
     </row>
-    <row r="455" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="1"/>
-      <c r="B455" s="6"/>
+      <c r="B455" s="5"/>
       <c r="C455" s="1"/>
       <c r="D455" s="1"/>
       <c r="E455" s="1"/>
@@ -7479,9 +7445,9 @@
       <c r="M455" s="1"/>
       <c r="N455" s="1"/>
     </row>
-    <row r="456" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="1"/>
-      <c r="B456" s="6"/>
+      <c r="B456" s="2"/>
       <c r="C456" s="1"/>
       <c r="D456" s="1"/>
       <c r="E456" s="1"/>
@@ -7494,7 +7460,7 @@
       <c r="M456" s="1"/>
       <c r="N456" s="1"/>
     </row>
-    <row r="457" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="1"/>
       <c r="B457" s="2"/>
       <c r="C457" s="1"/>
@@ -7509,7 +7475,7 @@
       <c r="M457" s="1"/>
       <c r="N457" s="1"/>
     </row>
-    <row r="458" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="1"/>
       <c r="B458" s="2"/>
       <c r="C458" s="1"/>
@@ -7524,7 +7490,7 @@
       <c r="M458" s="1"/>
       <c r="N458" s="1"/>
     </row>
-    <row r="459" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="1"/>
       <c r="B459" s="2"/>
       <c r="C459" s="1"/>
@@ -7539,9 +7505,9 @@
       <c r="M459" s="1"/>
       <c r="N459" s="1"/>
     </row>
-    <row r="460" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="1"/>
-      <c r="B460" s="2"/>
+      <c r="B460" s="5"/>
       <c r="C460" s="1"/>
       <c r="D460" s="1"/>
       <c r="E460" s="1"/>
@@ -7554,9 +7520,9 @@
       <c r="M460" s="1"/>
       <c r="N460" s="1"/>
     </row>
-    <row r="461" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="1"/>
-      <c r="B461" s="6"/>
+      <c r="B461" s="5"/>
       <c r="C461" s="1"/>
       <c r="D461" s="1"/>
       <c r="E461" s="1"/>
@@ -7569,9 +7535,9 @@
       <c r="M461" s="1"/>
       <c r="N461" s="1"/>
     </row>
-    <row r="462" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="1"/>
-      <c r="B462" s="6"/>
+      <c r="B462" s="5"/>
       <c r="C462" s="1"/>
       <c r="D462" s="1"/>
       <c r="E462" s="1"/>
@@ -7584,9 +7550,9 @@
       <c r="M462" s="1"/>
       <c r="N462" s="1"/>
     </row>
-    <row r="463" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="1"/>
-      <c r="B463" s="6"/>
+      <c r="B463" s="5"/>
       <c r="C463" s="1"/>
       <c r="D463" s="1"/>
       <c r="E463" s="1"/>
@@ -7599,9 +7565,9 @@
       <c r="M463" s="1"/>
       <c r="N463" s="1"/>
     </row>
-    <row r="464" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="1"/>
-      <c r="B464" s="6"/>
+      <c r="B464" s="5"/>
       <c r="C464" s="1"/>
       <c r="D464" s="1"/>
       <c r="E464" s="1"/>
@@ -7614,9 +7580,9 @@
       <c r="M464" s="1"/>
       <c r="N464" s="1"/>
     </row>
-    <row r="465" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:14" s="6" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="1"/>
-      <c r="B465" s="6"/>
+      <c r="B465" s="5"/>
       <c r="C465" s="1"/>
       <c r="D465" s="1"/>
       <c r="E465" s="1"/>
@@ -7629,9 +7595,9 @@
       <c r="M465" s="1"/>
       <c r="N465" s="1"/>
     </row>
-    <row r="466" spans="1:14" s="7" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="1"/>
-      <c r="B466" s="6"/>
+      <c r="B466" s="5"/>
       <c r="C466" s="1"/>
       <c r="D466" s="1"/>
       <c r="E466" s="1"/>
@@ -7644,9 +7610,9 @@
       <c r="M466" s="1"/>
       <c r="N466" s="1"/>
     </row>
-    <row r="467" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="1"/>
-      <c r="B467" s="6"/>
+      <c r="B467" s="5"/>
       <c r="C467" s="1"/>
       <c r="D467" s="1"/>
       <c r="E467" s="1"/>
@@ -7659,9 +7625,9 @@
       <c r="M467" s="1"/>
       <c r="N467" s="1"/>
     </row>
-    <row r="468" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="1"/>
-      <c r="B468" s="6"/>
+      <c r="B468" s="5"/>
       <c r="C468" s="1"/>
       <c r="D468" s="1"/>
       <c r="E468" s="1"/>
@@ -7674,9 +7640,9 @@
       <c r="M468" s="1"/>
       <c r="N468" s="1"/>
     </row>
-    <row r="469" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="1"/>
-      <c r="B469" s="6"/>
+      <c r="B469" s="5"/>
       <c r="C469" s="1"/>
       <c r="D469" s="1"/>
       <c r="E469" s="1"/>
@@ -7689,9 +7655,9 @@
       <c r="M469" s="1"/>
       <c r="N469" s="1"/>
     </row>
-    <row r="470" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="1"/>
-      <c r="B470" s="6"/>
+      <c r="B470" s="5"/>
       <c r="C470" s="1"/>
       <c r="D470" s="1"/>
       <c r="E470" s="1"/>
@@ -7704,9 +7670,9 @@
       <c r="M470" s="1"/>
       <c r="N470" s="1"/>
     </row>
-    <row r="471" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="1"/>
-      <c r="B471" s="6"/>
+      <c r="B471" s="5"/>
       <c r="C471" s="1"/>
       <c r="D471" s="1"/>
       <c r="E471" s="1"/>
@@ -7719,9 +7685,9 @@
       <c r="M471" s="1"/>
       <c r="N471" s="1"/>
     </row>
-    <row r="472" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="1"/>
-      <c r="B472" s="6"/>
+      <c r="B472" s="5"/>
       <c r="C472" s="1"/>
       <c r="D472" s="1"/>
       <c r="E472" s="1"/>
@@ -7734,9 +7700,9 @@
       <c r="M472" s="1"/>
       <c r="N472" s="1"/>
     </row>
-    <row r="473" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="1"/>
-      <c r="B473" s="6"/>
+      <c r="B473" s="5"/>
       <c r="C473" s="1"/>
       <c r="D473" s="1"/>
       <c r="E473" s="1"/>
@@ -7749,9 +7715,9 @@
       <c r="M473" s="1"/>
       <c r="N473" s="1"/>
     </row>
-    <row r="474" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="1"/>
-      <c r="B474" s="6"/>
+      <c r="B474" s="5"/>
       <c r="C474" s="1"/>
       <c r="D474" s="1"/>
       <c r="E474" s="1"/>
@@ -7764,9 +7730,9 @@
       <c r="M474" s="1"/>
       <c r="N474" s="1"/>
     </row>
-    <row r="475" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="1"/>
-      <c r="B475" s="6"/>
+      <c r="B475" s="5"/>
       <c r="C475" s="1"/>
       <c r="D475" s="1"/>
       <c r="E475" s="1"/>
@@ -7779,9 +7745,9 @@
       <c r="M475" s="1"/>
       <c r="N475" s="1"/>
     </row>
-    <row r="476" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="1"/>
-      <c r="B476" s="6"/>
+      <c r="B476" s="5"/>
       <c r="C476" s="1"/>
       <c r="D476" s="1"/>
       <c r="E476" s="1"/>
@@ -7794,9 +7760,9 @@
       <c r="M476" s="1"/>
       <c r="N476" s="1"/>
     </row>
-    <row r="477" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1"/>
-      <c r="B477" s="6"/>
+      <c r="B477" s="5"/>
       <c r="C477" s="1"/>
       <c r="D477" s="1"/>
       <c r="E477" s="1"/>
@@ -7809,9 +7775,9 @@
       <c r="M477" s="1"/>
       <c r="N477" s="1"/>
     </row>
-    <row r="478" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="1"/>
-      <c r="B478" s="6"/>
+      <c r="B478" s="5"/>
       <c r="C478" s="1"/>
       <c r="D478" s="1"/>
       <c r="E478" s="1"/>
@@ -7824,9 +7790,9 @@
       <c r="M478" s="1"/>
       <c r="N478" s="1"/>
     </row>
-    <row r="479" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="1"/>
-      <c r="B479" s="6"/>
+      <c r="B479" s="5"/>
       <c r="C479" s="1"/>
       <c r="D479" s="1"/>
       <c r="E479" s="1"/>
@@ -7839,9 +7805,9 @@
       <c r="M479" s="1"/>
       <c r="N479" s="1"/>
     </row>
-    <row r="480" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="1"/>
-      <c r="B480" s="6"/>
+      <c r="B480" s="5"/>
       <c r="C480" s="1"/>
       <c r="D480" s="1"/>
       <c r="E480" s="1"/>
@@ -7854,9 +7820,9 @@
       <c r="M480" s="1"/>
       <c r="N480" s="1"/>
     </row>
-    <row r="481" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="1"/>
-      <c r="B481" s="6"/>
+      <c r="B481" s="5"/>
       <c r="C481" s="1"/>
       <c r="D481" s="1"/>
       <c r="E481" s="1"/>
@@ -7869,9 +7835,9 @@
       <c r="M481" s="1"/>
       <c r="N481" s="1"/>
     </row>
-    <row r="482" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="1"/>
-      <c r="B482" s="6"/>
+      <c r="B482" s="5"/>
       <c r="C482" s="1"/>
       <c r="D482" s="1"/>
       <c r="E482" s="1"/>
@@ -7884,9 +7850,9 @@
       <c r="M482" s="1"/>
       <c r="N482" s="1"/>
     </row>
-    <row r="483" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1"/>
-      <c r="B483" s="6"/>
+      <c r="B483" s="5"/>
       <c r="C483" s="1"/>
       <c r="D483" s="1"/>
       <c r="E483" s="1"/>
@@ -7899,9 +7865,9 @@
       <c r="M483" s="1"/>
       <c r="N483" s="1"/>
     </row>
-    <row r="484" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="1"/>
-      <c r="B484" s="6"/>
+      <c r="B484" s="5"/>
       <c r="C484" s="1"/>
       <c r="D484" s="1"/>
       <c r="E484" s="1"/>
@@ -7914,9 +7880,9 @@
       <c r="M484" s="1"/>
       <c r="N484" s="1"/>
     </row>
-    <row r="485" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="1"/>
-      <c r="B485" s="6"/>
+      <c r="B485" s="5"/>
       <c r="C485" s="1"/>
       <c r="D485" s="1"/>
       <c r="E485" s="1"/>
@@ -7929,9 +7895,9 @@
       <c r="M485" s="1"/>
       <c r="N485" s="1"/>
     </row>
-    <row r="486" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="1"/>
-      <c r="B486" s="6"/>
+      <c r="B486" s="5"/>
       <c r="C486" s="1"/>
       <c r="D486" s="1"/>
       <c r="E486" s="1"/>
@@ -7944,9 +7910,9 @@
       <c r="M486" s="1"/>
       <c r="N486" s="1"/>
     </row>
-    <row r="487" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="1"/>
-      <c r="B487" s="6"/>
+      <c r="B487" s="2"/>
       <c r="C487" s="1"/>
       <c r="D487" s="1"/>
       <c r="E487" s="1"/>
@@ -7959,7 +7925,7 @@
       <c r="M487" s="1"/>
       <c r="N487" s="1"/>
     </row>
-    <row r="488" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="1"/>
       <c r="B488" s="2"/>
       <c r="C488" s="1"/>
@@ -7974,9 +7940,9 @@
       <c r="M488" s="1"/>
       <c r="N488" s="1"/>
     </row>
-    <row r="489" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="1"/>
-      <c r="B489" s="2"/>
+      <c r="B489" s="5"/>
       <c r="C489" s="1"/>
       <c r="D489" s="1"/>
       <c r="E489" s="1"/>
@@ -7989,9 +7955,9 @@
       <c r="M489" s="1"/>
       <c r="N489" s="1"/>
     </row>
-    <row r="490" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="1"/>
-      <c r="B490" s="6"/>
+      <c r="B490" s="5"/>
       <c r="C490" s="1"/>
       <c r="D490" s="1"/>
       <c r="E490" s="1"/>
@@ -8004,9 +7970,9 @@
       <c r="M490" s="1"/>
       <c r="N490" s="1"/>
     </row>
-    <row r="491" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="1"/>
-      <c r="B491" s="6"/>
+      <c r="B491" s="5"/>
       <c r="C491" s="1"/>
       <c r="D491" s="1"/>
       <c r="E491" s="1"/>
@@ -8019,9 +7985,9 @@
       <c r="M491" s="1"/>
       <c r="N491" s="1"/>
     </row>
-    <row r="492" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="1"/>
-      <c r="B492" s="6"/>
+      <c r="B492" s="5"/>
       <c r="C492" s="1"/>
       <c r="D492" s="1"/>
       <c r="E492" s="1"/>
@@ -8034,9 +8000,9 @@
       <c r="M492" s="1"/>
       <c r="N492" s="1"/>
     </row>
-    <row r="493" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="1"/>
-      <c r="B493" s="6"/>
+      <c r="B493" s="5"/>
       <c r="C493" s="1"/>
       <c r="D493" s="1"/>
       <c r="E493" s="1"/>
@@ -8049,9 +8015,9 @@
       <c r="M493" s="1"/>
       <c r="N493" s="1"/>
     </row>
-    <row r="494" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="1"/>
-      <c r="B494" s="6"/>
+      <c r="B494" s="5"/>
       <c r="C494" s="1"/>
       <c r="D494" s="1"/>
       <c r="E494" s="1"/>
@@ -8064,9 +8030,9 @@
       <c r="M494" s="1"/>
       <c r="N494" s="1"/>
     </row>
-    <row r="495" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="1"/>
-      <c r="B495" s="6"/>
+      <c r="B495" s="5"/>
       <c r="C495" s="1"/>
       <c r="D495" s="1"/>
       <c r="E495" s="1"/>
@@ -8079,9 +8045,9 @@
       <c r="M495" s="1"/>
       <c r="N495" s="1"/>
     </row>
-    <row r="496" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="1"/>
-      <c r="B496" s="6"/>
+      <c r="B496" s="5"/>
       <c r="C496" s="1"/>
       <c r="D496" s="1"/>
       <c r="E496" s="1"/>
@@ -8094,9 +8060,9 @@
       <c r="M496" s="1"/>
       <c r="N496" s="1"/>
     </row>
-    <row r="497" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="1"/>
-      <c r="B497" s="6"/>
+      <c r="B497" s="5"/>
       <c r="C497" s="1"/>
       <c r="D497" s="1"/>
       <c r="E497" s="1"/>
@@ -8109,9 +8075,9 @@
       <c r="M497" s="1"/>
       <c r="N497" s="1"/>
     </row>
-    <row r="498" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="1"/>
-      <c r="B498" s="6"/>
+      <c r="B498" s="5"/>
       <c r="C498" s="1"/>
       <c r="D498" s="1"/>
       <c r="E498" s="1"/>
@@ -8124,9 +8090,9 @@
       <c r="M498" s="1"/>
       <c r="N498" s="1"/>
     </row>
-    <row r="499" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="1"/>
-      <c r="B499" s="6"/>
+      <c r="B499" s="5"/>
       <c r="C499" s="1"/>
       <c r="D499" s="1"/>
       <c r="E499" s="1"/>
@@ -8139,9 +8105,9 @@
       <c r="M499" s="1"/>
       <c r="N499" s="1"/>
     </row>
-    <row r="500" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="1"/>
-      <c r="B500" s="6"/>
+      <c r="B500" s="5"/>
       <c r="C500" s="1"/>
       <c r="D500" s="1"/>
       <c r="E500" s="1"/>
@@ -8154,9 +8120,9 @@
       <c r="M500" s="1"/>
       <c r="N500" s="1"/>
     </row>
-    <row r="501" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1"/>
-      <c r="B501" s="6"/>
+      <c r="B501" s="2"/>
       <c r="C501" s="1"/>
       <c r="D501" s="1"/>
       <c r="E501" s="1"/>
@@ -8169,7 +8135,7 @@
       <c r="M501" s="1"/>
       <c r="N501" s="1"/>
     </row>
-    <row r="502" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="1"/>
       <c r="B502" s="2"/>
       <c r="C502" s="1"/>
@@ -8184,7 +8150,7 @@
       <c r="M502" s="1"/>
       <c r="N502" s="1"/>
     </row>
-    <row r="503" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="1"/>
       <c r="B503" s="2"/>
       <c r="C503" s="1"/>
@@ -8199,7 +8165,7 @@
       <c r="M503" s="1"/>
       <c r="N503" s="1"/>
     </row>
-    <row r="504" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="1"/>
       <c r="B504" s="2"/>
       <c r="C504" s="1"/>
@@ -8214,7 +8180,7 @@
       <c r="M504" s="1"/>
       <c r="N504" s="1"/>
     </row>
-    <row r="505" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="1"/>
       <c r="B505" s="2"/>
       <c r="C505" s="1"/>
@@ -8229,7 +8195,7 @@
       <c r="M505" s="1"/>
       <c r="N505" s="1"/>
     </row>
-    <row r="506" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="1"/>
       <c r="B506" s="2"/>
       <c r="C506" s="1"/>
@@ -8244,7 +8210,7 @@
       <c r="M506" s="1"/>
       <c r="N506" s="1"/>
     </row>
-    <row r="507" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1"/>
       <c r="B507" s="2"/>
       <c r="C507" s="1"/>
@@ -8259,345 +8225,330 @@
       <c r="M507" s="1"/>
       <c r="N507" s="1"/>
     </row>
-    <row r="508" spans="1:14" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A508" s="1"/>
+    <row r="508" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B508" s="2"/>
-      <c r="C508" s="1"/>
-      <c r="D508" s="1"/>
-      <c r="E508" s="1"/>
-      <c r="F508" s="1"/>
-      <c r="G508" s="1"/>
-      <c r="H508" s="1"/>
-      <c r="I508" s="1"/>
-      <c r="K508" s="1"/>
-      <c r="L508" s="1"/>
-      <c r="M508" s="1"/>
-      <c r="N508" s="1"/>
-    </row>
-    <row r="509" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J508" s="6"/>
+    </row>
+    <row r="509" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B509" s="2"/>
-      <c r="J509" s="7"/>
-    </row>
-    <row r="510" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B510" s="2"/>
-      <c r="J510" s="7"/>
-    </row>
-    <row r="511" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B511" s="6"/>
-      <c r="J511" s="7"/>
-    </row>
-    <row r="512" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B512" s="6"/>
-      <c r="J512" s="7"/>
-    </row>
-    <row r="513" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J509" s="6"/>
+    </row>
+    <row r="510" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B510" s="5"/>
+      <c r="J510" s="6"/>
+    </row>
+    <row r="511" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B511" s="5"/>
+      <c r="J511" s="6"/>
+    </row>
+    <row r="512" spans="1:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B512" s="2"/>
+      <c r="J512" s="6"/>
+    </row>
+    <row r="513" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B513" s="2"/>
-      <c r="J513" s="7"/>
-    </row>
-    <row r="514" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B514" s="2"/>
-      <c r="J514" s="7"/>
-    </row>
-    <row r="515" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B515" s="6"/>
-      <c r="J515" s="7"/>
-    </row>
-    <row r="516" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B516" s="6"/>
-    </row>
-    <row r="517" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B517" s="6"/>
-    </row>
-    <row r="518" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B518" s="6"/>
-      <c r="J518" s="7"/>
-    </row>
-    <row r="519" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B519" s="6"/>
-      <c r="J519" s="7"/>
-    </row>
-    <row r="520" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B520" s="6"/>
-      <c r="J520" s="7"/>
-    </row>
-    <row r="521" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B521" s="6"/>
-      <c r="J521" s="7"/>
-    </row>
-    <row r="522" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B522" s="6"/>
-    </row>
-    <row r="523" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B523" s="6"/>
-    </row>
-    <row r="524" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B524" s="6"/>
-      <c r="J524" s="7"/>
-    </row>
-    <row r="525" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B525" s="6"/>
-      <c r="J525" s="7"/>
-    </row>
-    <row r="526" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J513" s="6"/>
+    </row>
+    <row r="514" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B514" s="5"/>
+      <c r="J514" s="6"/>
+    </row>
+    <row r="515" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B515" s="5"/>
+    </row>
+    <row r="516" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B516" s="5"/>
+    </row>
+    <row r="517" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B517" s="5"/>
+      <c r="J517" s="6"/>
+    </row>
+    <row r="518" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B518" s="5"/>
+      <c r="J518" s="6"/>
+    </row>
+    <row r="519" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B519" s="5"/>
+      <c r="J519" s="6"/>
+    </row>
+    <row r="520" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B520" s="5"/>
+      <c r="J520" s="6"/>
+    </row>
+    <row r="521" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B521" s="5"/>
+    </row>
+    <row r="522" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B522" s="5"/>
+    </row>
+    <row r="523" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B523" s="5"/>
+      <c r="J523" s="6"/>
+    </row>
+    <row r="524" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B524" s="5"/>
+      <c r="J524" s="6"/>
+    </row>
+    <row r="525" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A525" s="1"/>
+      <c r="B525" s="5"/>
+      <c r="C525" s="1"/>
+      <c r="D525" s="1"/>
+      <c r="E525" s="1"/>
+      <c r="F525" s="1"/>
+    </row>
+    <row r="526" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="1"/>
-      <c r="B526" s="6"/>
+      <c r="B526" s="5"/>
       <c r="C526" s="1"/>
       <c r="D526" s="1"/>
       <c r="E526" s="1"/>
       <c r="F526" s="1"/>
     </row>
-    <row r="527" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="527" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="1"/>
-      <c r="B527" s="6"/>
+      <c r="B527" s="5"/>
       <c r="C527" s="1"/>
       <c r="D527" s="1"/>
       <c r="E527" s="1"/>
       <c r="F527" s="1"/>
     </row>
-    <row r="528" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="528" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="1"/>
-      <c r="B528" s="6"/>
+      <c r="B528" s="5"/>
       <c r="C528" s="1"/>
       <c r="D528" s="1"/>
       <c r="E528" s="1"/>
       <c r="F528" s="1"/>
     </row>
-    <row r="529" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="529" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="1"/>
-      <c r="B529" s="6"/>
+      <c r="B529" s="5"/>
       <c r="C529" s="1"/>
       <c r="D529" s="1"/>
       <c r="E529" s="1"/>
       <c r="F529" s="1"/>
     </row>
-    <row r="530" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="530" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="1"/>
-      <c r="B530" s="6"/>
+      <c r="B530" s="5"/>
       <c r="C530" s="1"/>
       <c r="D530" s="1"/>
       <c r="E530" s="1"/>
       <c r="F530" s="1"/>
     </row>
-    <row r="531" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="531" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="1"/>
-      <c r="B531" s="6"/>
+      <c r="B531" s="5"/>
       <c r="C531" s="1"/>
       <c r="D531" s="1"/>
       <c r="E531" s="1"/>
       <c r="F531" s="1"/>
     </row>
-    <row r="532" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="532" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="1"/>
-      <c r="B532" s="6"/>
+      <c r="B532" s="5"/>
       <c r="C532" s="1"/>
       <c r="D532" s="1"/>
       <c r="E532" s="1"/>
       <c r="F532" s="1"/>
     </row>
-    <row r="533" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A533" s="1"/>
-      <c r="B533" s="6"/>
+    <row r="533" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B533" s="5"/>
       <c r="C533" s="1"/>
-      <c r="D533" s="1"/>
-      <c r="E533" s="1"/>
-      <c r="F533" s="1"/>
-    </row>
-    <row r="534" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B534" s="6"/>
+    </row>
+    <row r="534" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B534" s="5"/>
       <c r="C534" s="1"/>
     </row>
-    <row r="535" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B535" s="6"/>
+    <row r="535" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B535" s="5"/>
       <c r="C535" s="1"/>
     </row>
-    <row r="536" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B536" s="6"/>
+    <row r="536" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B536" s="5"/>
       <c r="C536" s="1"/>
     </row>
-    <row r="537" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B537" s="6"/>
-      <c r="C537" s="1"/>
-    </row>
-    <row r="538" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B538" s="6"/>
-      <c r="J538" s="7"/>
-    </row>
-    <row r="539" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B539" s="6"/>
-      <c r="J539" s="7"/>
-    </row>
-    <row r="540" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B540" s="6"/>
+    <row r="537" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B537" s="5"/>
+      <c r="J537" s="6"/>
+    </row>
+    <row r="538" spans="1:10" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B538" s="5"/>
+      <c r="J538" s="6"/>
+    </row>
+    <row r="539" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B539" s="5"/>
+      <c r="C539" s="1"/>
+    </row>
+    <row r="540" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B540" s="5"/>
       <c r="C540" s="1"/>
     </row>
-    <row r="541" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B541" s="6"/>
+    <row r="541" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B541" s="5"/>
       <c r="C541" s="1"/>
     </row>
-    <row r="542" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B542" s="6"/>
+    <row r="542" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B542" s="5"/>
       <c r="C542" s="1"/>
     </row>
-    <row r="543" spans="1:10" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B543" s="6"/>
+    <row r="543" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A543" s="1"/>
+      <c r="B543" s="5"/>
       <c r="C543" s="1"/>
-    </row>
-    <row r="544" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D543" s="1"/>
+      <c r="E543" s="1"/>
+      <c r="F543" s="1"/>
+    </row>
+    <row r="544" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="1"/>
-      <c r="B544" s="6"/>
+      <c r="B544" s="5"/>
       <c r="C544" s="1"/>
       <c r="D544" s="1"/>
       <c r="E544" s="1"/>
       <c r="F544" s="1"/>
     </row>
-    <row r="545" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="1"/>
-      <c r="B545" s="6"/>
+      <c r="B545" s="5"/>
       <c r="C545" s="1"/>
-      <c r="D545" s="1"/>
-      <c r="E545" s="1"/>
-      <c r="F545" s="1"/>
-    </row>
-    <row r="546" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="546" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="1"/>
-      <c r="B546" s="6"/>
+      <c r="B546" s="5"/>
       <c r="C546" s="1"/>
     </row>
-    <row r="547" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="1"/>
-      <c r="B547" s="6"/>
+      <c r="B547" s="5"/>
       <c r="C547" s="1"/>
     </row>
-    <row r="548" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1"/>
-      <c r="B548" s="6"/>
+      <c r="B548" s="5"/>
       <c r="C548" s="1"/>
     </row>
-    <row r="549" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="549" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="1"/>
-      <c r="B549" s="6"/>
+      <c r="B549" s="5"/>
       <c r="C549" s="1"/>
     </row>
-    <row r="550" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="550" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="1"/>
-      <c r="B550" s="6"/>
+      <c r="B550" s="5"/>
       <c r="C550" s="1"/>
     </row>
-    <row r="551" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="1"/>
-      <c r="B551" s="6"/>
+      <c r="B551" s="5"/>
       <c r="C551" s="1"/>
     </row>
-    <row r="552" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="1"/>
-      <c r="B552" s="6"/>
+      <c r="B552" s="5"/>
       <c r="C552" s="1"/>
-    </row>
-    <row r="553" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="D552" s="1"/>
+      <c r="E552" s="1"/>
+      <c r="F552" s="1"/>
+    </row>
+    <row r="553" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="1"/>
-      <c r="B553" s="6"/>
+      <c r="B553" s="5"/>
       <c r="C553" s="1"/>
       <c r="D553" s="1"/>
       <c r="E553" s="1"/>
       <c r="F553" s="1"/>
     </row>
-    <row r="554" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="1"/>
-      <c r="B554" s="6"/>
+      <c r="B554" s="5"/>
       <c r="C554" s="1"/>
-      <c r="D554" s="1"/>
-      <c r="E554" s="1"/>
-      <c r="F554" s="1"/>
-    </row>
-    <row r="555" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="555" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="1"/>
-      <c r="B555" s="6"/>
+      <c r="B555" s="5"/>
       <c r="C555" s="1"/>
     </row>
-    <row r="556" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="1"/>
-      <c r="B556" s="6"/>
+      <c r="B556" s="5"/>
       <c r="C556" s="1"/>
     </row>
-    <row r="557" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="1"/>
-      <c r="B557" s="6"/>
+      <c r="B557" s="5"/>
       <c r="C557" s="1"/>
     </row>
-    <row r="558" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="558" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="1"/>
-      <c r="B558" s="6"/>
+      <c r="B558" s="5"/>
       <c r="C558" s="1"/>
     </row>
-    <row r="559" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="1"/>
-      <c r="B559" s="6"/>
+      <c r="B559" s="5"/>
       <c r="C559" s="1"/>
     </row>
-    <row r="560" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="1"/>
-      <c r="B560" s="6"/>
+      <c r="B560" s="5"/>
       <c r="C560" s="1"/>
     </row>
-    <row r="561" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="1"/>
-      <c r="B561" s="6"/>
+      <c r="B561" s="5"/>
       <c r="C561" s="1"/>
     </row>
-    <row r="562" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="562" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="1"/>
-      <c r="B562" s="6"/>
+      <c r="B562" s="5"/>
       <c r="C562" s="1"/>
     </row>
-    <row r="563" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="563" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="1"/>
-      <c r="B563" s="6"/>
+      <c r="B563" s="5"/>
       <c r="C563" s="1"/>
     </row>
-    <row r="564" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="564" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="1"/>
-      <c r="B564" s="6"/>
+      <c r="B564" s="5"/>
       <c r="C564" s="1"/>
     </row>
-    <row r="565" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="565" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="1"/>
-      <c r="B565" s="6"/>
+      <c r="B565" s="5"/>
       <c r="C565" s="1"/>
     </row>
-    <row r="566" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="566" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="1"/>
-      <c r="B566" s="6"/>
+      <c r="B566" s="5"/>
       <c r="C566" s="1"/>
     </row>
-    <row r="567" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="567" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="1"/>
-      <c r="B567" s="6"/>
+      <c r="B567" s="5"/>
       <c r="C567" s="1"/>
     </row>
-    <row r="568" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" s="1"/>
       <c r="B568" s="6"/>
       <c r="C568" s="1"/>
     </row>
-    <row r="569" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" s="1"/>
-      <c r="B569" s="7"/>
+      <c r="B569" s="6"/>
       <c r="C569" s="1"/>
     </row>
-    <row r="570" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="1"/>
-      <c r="B570" s="7"/>
+      <c r="B570" s="5"/>
       <c r="C570" s="1"/>
     </row>
-    <row r="571" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="1"/>
-      <c r="B571" s="6"/>
+      <c r="B571" s="5"/>
       <c r="C571" s="1"/>
-    </row>
-    <row r="572" spans="1:3" ht="16" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A572" s="1"/>
-      <c r="B572" s="6"/>
-      <c r="C572" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8611,7 +8562,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8623,7 +8574,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
